--- a/outputs-HGR-r202/train-g__Megasphaera_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Megasphaera_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="525">
   <si>
     <t>Row</t>
   </si>
@@ -976,6 +978,621 @@
   </si>
   <si>
     <t>label_13470_2_73_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_9.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_14.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_17.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_24.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_29.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_32.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_34.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_38.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS163_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS14_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS24_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS111_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS281_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1114_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1693_78.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_0.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_1.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_12.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_13.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_16.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_3.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_33.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_5.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_73_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1010,11 +1627,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1022,6 +1643,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12013,4 +12638,7293 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K104"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="27" customWidth="true"/>
+    <col min="3" max="3" width="27.28515625" customWidth="true"/>
+    <col min="4" max="4" width="27.28515625" customWidth="true"/>
+    <col min="5" max="5" width="27.28515625" customWidth="true"/>
+    <col min="6" max="6" width="27.28515625" customWidth="true"/>
+    <col min="7" max="7" width="27.28515625" customWidth="true"/>
+    <col min="8" max="8" width="27.28515625" customWidth="true"/>
+    <col min="9" max="9" width="24.140625" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2">
+        <v>0.28316602594199219</v>
+      </c>
+      <c r="C2">
+        <v>0.022473293610160063</v>
+      </c>
+      <c r="D2">
+        <v>0.27485777902864611</v>
+      </c>
+      <c r="E2">
+        <v>0.25442355366994568</v>
+      </c>
+      <c r="F2">
+        <v>0.0025334646477111694</v>
+      </c>
+      <c r="G2">
+        <v>0.0068219256239229449</v>
+      </c>
+      <c r="H2">
+        <v>0.10846192485084985</v>
+      </c>
+      <c r="I2">
+        <v>0.047262032626771956</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3">
+        <v>0.26080985480290586</v>
+      </c>
+      <c r="C3">
+        <v>0.014759506912658761</v>
+      </c>
+      <c r="D3">
+        <v>0.2946159661364387</v>
+      </c>
+      <c r="E3">
+        <v>0.24215586946187903</v>
+      </c>
+      <c r="F3">
+        <v>0.0025050779309603965</v>
+      </c>
+      <c r="G3">
+        <v>0.0056224704226197231</v>
+      </c>
+      <c r="H3">
+        <v>0.10870511975587201</v>
+      </c>
+      <c r="I3">
+        <v>0.070826134576665506</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4">
+        <v>0.27869399090042879</v>
+      </c>
+      <c r="C4">
+        <v>0.023926912906905587</v>
+      </c>
+      <c r="D4">
+        <v>0.23434624850263039</v>
+      </c>
+      <c r="E4">
+        <v>0.3387746503758749</v>
+      </c>
+      <c r="F4">
+        <v>0.0028792330650617504</v>
+      </c>
+      <c r="G4">
+        <v>0.02515389450472677</v>
+      </c>
+      <c r="H4">
+        <v>0.044345143266065742</v>
+      </c>
+      <c r="I4">
+        <v>0.051879926478306151</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5">
+        <v>0.3237943335520313</v>
+      </c>
+      <c r="C5">
+        <v>0.014035152901288369</v>
+      </c>
+      <c r="D5">
+        <v>0.24532497919324822</v>
+      </c>
+      <c r="E5">
+        <v>0.25487000195935194</v>
+      </c>
+      <c r="F5">
+        <v>0.0020613123288862429</v>
+      </c>
+      <c r="G5">
+        <v>0.00073104737967833984</v>
+      </c>
+      <c r="H5">
+        <v>0.10519224850068673</v>
+      </c>
+      <c r="I5">
+        <v>0.053990924184828724</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6">
+        <v>0.30670788405772897</v>
+      </c>
+      <c r="C6">
+        <v>0.011402545720181793</v>
+      </c>
+      <c r="D6">
+        <v>0.28190942987789352</v>
+      </c>
+      <c r="E6">
+        <v>0.28877078506132864</v>
+      </c>
+      <c r="F6">
+        <v>0.0045252231553003066</v>
+      </c>
+      <c r="G6">
+        <v>0.0029418785820669647</v>
+      </c>
+      <c r="H6">
+        <v>0.042626445608185411</v>
+      </c>
+      <c r="I6">
+        <v>0.061115807937314262</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7">
+        <v>0.31256325874078417</v>
+      </c>
+      <c r="C7">
+        <v>0.032492459166736126</v>
+      </c>
+      <c r="D7">
+        <v>0.24080387934208153</v>
+      </c>
+      <c r="E7">
+        <v>0.24870151981538455</v>
+      </c>
+      <c r="F7">
+        <v>0.0014771786472198157</v>
+      </c>
+      <c r="G7">
+        <v>0.0011275620660731662</v>
+      </c>
+      <c r="H7">
+        <v>0.070521027011146403</v>
+      </c>
+      <c r="I7">
+        <v>0.092313115210574406</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8">
+        <v>0.25573246646526687</v>
+      </c>
+      <c r="C8">
+        <v>0.054341424196199105</v>
+      </c>
+      <c r="D8">
+        <v>0.19514529183422949</v>
+      </c>
+      <c r="E8">
+        <v>0.22062177816351602</v>
+      </c>
+      <c r="F8">
+        <v>0.00076784654888239611</v>
+      </c>
+      <c r="G8">
+        <v>0.0098769726430442059</v>
+      </c>
+      <c r="H8">
+        <v>0.17691443792438155</v>
+      </c>
+      <c r="I8">
+        <v>0.08659978222448024</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9">
+        <v>0.41018367223732521</v>
+      </c>
+      <c r="C9">
+        <v>0.026568473870076204</v>
+      </c>
+      <c r="D9">
+        <v>0.22546850729750981</v>
+      </c>
+      <c r="E9">
+        <v>0.19699143379444659</v>
+      </c>
+      <c r="F9">
+        <v>0.00061595570600726996</v>
+      </c>
+      <c r="G9">
+        <v>2.3632163302865981e-05</v>
+      </c>
+      <c r="H9">
+        <v>0.0095992035436002401</v>
+      </c>
+      <c r="I9">
+        <v>0.13054912138773184</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10">
+        <v>0.24939493574574806</v>
+      </c>
+      <c r="C10">
+        <v>0.070785128910318712</v>
+      </c>
+      <c r="D10">
+        <v>0.20356335182925678</v>
+      </c>
+      <c r="E10">
+        <v>0.18673402201221453</v>
+      </c>
+      <c r="F10">
+        <v>8.4501157233069429e-05</v>
+      </c>
+      <c r="G10">
+        <v>0.027827391574586337</v>
+      </c>
+      <c r="H10">
+        <v>0.21152663930768942</v>
+      </c>
+      <c r="I10">
+        <v>0.050084029462952935</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11">
+        <v>0.27256472680033683</v>
+      </c>
+      <c r="C11">
+        <v>0.091014794913842567</v>
+      </c>
+      <c r="D11">
+        <v>0.19327302265555399</v>
+      </c>
+      <c r="E11">
+        <v>0.2142401554167159</v>
+      </c>
+      <c r="F11">
+        <v>7.1634968678586358e-05</v>
+      </c>
+      <c r="G11">
+        <v>0.02269717880469874</v>
+      </c>
+      <c r="H11">
+        <v>0.12868153804163759</v>
+      </c>
+      <c r="I11">
+        <v>0.077456948398535785</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12">
+        <v>0.0043853718935207382</v>
+      </c>
+      <c r="C12">
+        <v>0.00053070460309289356</v>
+      </c>
+      <c r="D12">
+        <v>0.051469774676617716</v>
+      </c>
+      <c r="E12">
+        <v>0.066196242241905623</v>
+      </c>
+      <c r="F12">
+        <v>0.77004796250422414</v>
+      </c>
+      <c r="G12">
+        <v>9.5386990824363885e-06</v>
+      </c>
+      <c r="H12">
+        <v>1.1224901642301991e-10</v>
+      </c>
+      <c r="I12">
+        <v>0.10736040526930743</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13">
+        <v>0.33503536748915819</v>
+      </c>
+      <c r="C13">
+        <v>0.1047202334563745</v>
+      </c>
+      <c r="D13">
+        <v>0.17003914982328336</v>
+      </c>
+      <c r="E13">
+        <v>0.21321090671351581</v>
+      </c>
+      <c r="F13">
+        <v>0.00057961301732281114</v>
+      </c>
+      <c r="G13">
+        <v>0.00049571721493805575</v>
+      </c>
+      <c r="H13">
+        <v>0.0011613280890655111</v>
+      </c>
+      <c r="I13">
+        <v>0.17475768419634174</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14">
+        <v>0.18690809677488435</v>
+      </c>
+      <c r="C14">
+        <v>0.076234230189242191</v>
+      </c>
+      <c r="D14">
+        <v>0.21519575771420427</v>
+      </c>
+      <c r="E14">
+        <v>0.27319848441710093</v>
+      </c>
+      <c r="F14">
+        <v>0.0043049669521289134</v>
+      </c>
+      <c r="G14">
+        <v>0.00030588648980711908</v>
+      </c>
+      <c r="H14">
+        <v>1.5948294487039162e-05</v>
+      </c>
+      <c r="I14">
+        <v>0.24383662916814522</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15">
+        <v>0.17117450423857125</v>
+      </c>
+      <c r="C15">
+        <v>0.066222481954607254</v>
+      </c>
+      <c r="D15">
+        <v>0.16176371350284535</v>
+      </c>
+      <c r="E15">
+        <v>0.16716451117891629</v>
+      </c>
+      <c r="F15">
+        <v>0.0035009313207456151</v>
+      </c>
+      <c r="G15">
+        <v>0.18778542237511681</v>
+      </c>
+      <c r="H15">
+        <v>2.5208957130126952e-05</v>
+      </c>
+      <c r="I15">
+        <v>0.24236322647206726</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16">
+        <v>0.1271060609269534</v>
+      </c>
+      <c r="C16">
+        <v>0.087412436690988207</v>
+      </c>
+      <c r="D16">
+        <v>0.20619564622413489</v>
+      </c>
+      <c r="E16">
+        <v>0.13468122821636799</v>
+      </c>
+      <c r="F16">
+        <v>0.002752834813992681</v>
+      </c>
+      <c r="G16">
+        <v>0.017616666004141392</v>
+      </c>
+      <c r="H16">
+        <v>3.56703275720459e-05</v>
+      </c>
+      <c r="I16">
+        <v>0.42419945679584942</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17">
+        <v>0.25726626620747578</v>
+      </c>
+      <c r="C17">
+        <v>0.035198055703505947</v>
+      </c>
+      <c r="D17">
+        <v>0.23727471061567063</v>
+      </c>
+      <c r="E17">
+        <v>0.34662382832408406</v>
+      </c>
+      <c r="F17">
+        <v>0.0037140152664561403</v>
+      </c>
+      <c r="G17">
+        <v>0.0041746456977254966</v>
+      </c>
+      <c r="H17">
+        <v>0.060384706487316579</v>
+      </c>
+      <c r="I17">
+        <v>0.055363771697765296</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18">
+        <v>0.075071278009480463</v>
+      </c>
+      <c r="C18">
+        <v>0.79265915036027534</v>
+      </c>
+      <c r="D18">
+        <v>0.026104536766318846</v>
+      </c>
+      <c r="E18">
+        <v>0.090179952794397153</v>
+      </c>
+      <c r="F18">
+        <v>0.00057337062819962179</v>
+      </c>
+      <c r="G18">
+        <v>0.0012925212917549607</v>
+      </c>
+      <c r="H18">
+        <v>0.0017574738465529055</v>
+      </c>
+      <c r="I18">
+        <v>0.01236171630302068</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19">
+        <v>0.052229594329410788</v>
+      </c>
+      <c r="C19">
+        <v>0.8271640071679397</v>
+      </c>
+      <c r="D19">
+        <v>0.031314870933759544</v>
+      </c>
+      <c r="E19">
+        <v>0.057645312213365371</v>
+      </c>
+      <c r="F19">
+        <v>0.00030935450501895848</v>
+      </c>
+      <c r="G19">
+        <v>0.008960722222878862</v>
+      </c>
+      <c r="H19">
+        <v>0.0043905317090725537</v>
+      </c>
+      <c r="I19">
+        <v>0.01798560691855447</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20">
+        <v>0.06468720324562334</v>
+      </c>
+      <c r="C20">
+        <v>0.79767563072293968</v>
+      </c>
+      <c r="D20">
+        <v>0.033519959248186341</v>
+      </c>
+      <c r="E20">
+        <v>0.062184900416103937</v>
+      </c>
+      <c r="F20">
+        <v>0.00041919221774839433</v>
+      </c>
+      <c r="G20">
+        <v>0.011116001597759382</v>
+      </c>
+      <c r="H20">
+        <v>0.0021221744343504945</v>
+      </c>
+      <c r="I20">
+        <v>0.028274938117288272</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21">
+        <v>0.11276605154784562</v>
+      </c>
+      <c r="C21">
+        <v>0.31780108861293094</v>
+      </c>
+      <c r="D21">
+        <v>0.1286283608100858</v>
+      </c>
+      <c r="E21">
+        <v>0.15921648822824139</v>
+      </c>
+      <c r="F21">
+        <v>0.00066244568175890248</v>
+      </c>
+      <c r="G21">
+        <v>0.018940865055899963</v>
+      </c>
+      <c r="H21">
+        <v>0.19081490265269102</v>
+      </c>
+      <c r="I21">
+        <v>0.071169797410546229</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22">
+        <v>0.048275244373287826</v>
+      </c>
+      <c r="C22">
+        <v>0.80752457220387797</v>
+      </c>
+      <c r="D22">
+        <v>0.05101884635145007</v>
+      </c>
+      <c r="E22">
+        <v>0.030320061161065219</v>
+      </c>
+      <c r="F22">
+        <v>0.00031455887448910672</v>
+      </c>
+      <c r="G22">
+        <v>0.020191339217462675</v>
+      </c>
+      <c r="H22">
+        <v>0.0067002933504099861</v>
+      </c>
+      <c r="I22">
+        <v>0.035655084467957003</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23">
+        <v>0.15910792239717247</v>
+      </c>
+      <c r="C23">
+        <v>0.47470365489041721</v>
+      </c>
+      <c r="D23">
+        <v>0.084261156451247543</v>
+      </c>
+      <c r="E23">
+        <v>0.17397754505579902</v>
+      </c>
+      <c r="F23">
+        <v>0.00050504330658627031</v>
+      </c>
+      <c r="G23">
+        <v>0.022238024862584558</v>
+      </c>
+      <c r="H23">
+        <v>0.057952728581237116</v>
+      </c>
+      <c r="I23">
+        <v>0.027253924454955808</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24">
+        <v>0.082096600299667893</v>
+      </c>
+      <c r="C24">
+        <v>0.5438217891460585</v>
+      </c>
+      <c r="D24">
+        <v>0.062551387609067019</v>
+      </c>
+      <c r="E24">
+        <v>0.073561047356837342</v>
+      </c>
+      <c r="F24">
+        <v>0.00015979082629999391</v>
+      </c>
+      <c r="G24">
+        <v>0.17523453011263243</v>
+      </c>
+      <c r="H24">
+        <v>0.045485809024401178</v>
+      </c>
+      <c r="I24">
+        <v>0.01708904562503559</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <v>0.18782345376422035</v>
+      </c>
+      <c r="C25">
+        <v>0.56683018076167435</v>
+      </c>
+      <c r="D25">
+        <v>0.064199393403988406</v>
+      </c>
+      <c r="E25">
+        <v>0.12188889240882805</v>
+      </c>
+      <c r="F25">
+        <v>0.0019967557835794043</v>
+      </c>
+      <c r="G25">
+        <v>0.0048722234142366269</v>
+      </c>
+      <c r="H25">
+        <v>0.0046528621599537905</v>
+      </c>
+      <c r="I25">
+        <v>0.047736238303519023</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26">
+        <v>0.072257702270485155</v>
+      </c>
+      <c r="C26">
+        <v>0.22988260209399597</v>
+      </c>
+      <c r="D26">
+        <v>0.07253732631832277</v>
+      </c>
+      <c r="E26">
+        <v>0.045866647206005799</v>
+      </c>
+      <c r="F26">
+        <v>5.014759191203953e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.47760459278732409</v>
+      </c>
+      <c r="H26">
+        <v>0.085849983099065705</v>
+      </c>
+      <c r="I26">
+        <v>0.015950998632888475</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27">
+        <v>0.061378980877842972</v>
+      </c>
+      <c r="C27">
+        <v>0.043308685587027468</v>
+      </c>
+      <c r="D27">
+        <v>0.11521690762349479</v>
+      </c>
+      <c r="E27">
+        <v>0.025880171254818028</v>
+      </c>
+      <c r="F27">
+        <v>0.00035225349934302365</v>
+      </c>
+      <c r="G27">
+        <v>0.61854035657407558</v>
+      </c>
+      <c r="H27">
+        <v>0.05949967189250583</v>
+      </c>
+      <c r="I27">
+        <v>0.07582297269089236</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28">
+        <v>0.037456086091005529</v>
+      </c>
+      <c r="C28">
+        <v>0.066586954861615963</v>
+      </c>
+      <c r="D28">
+        <v>0.058256429216736176</v>
+      </c>
+      <c r="E28">
+        <v>0.011455370916571244</v>
+      </c>
+      <c r="F28">
+        <v>1.771816010050008e-05</v>
+      </c>
+      <c r="G28">
+        <v>0.79023805931706292</v>
+      </c>
+      <c r="H28">
+        <v>0.021569853271638569</v>
+      </c>
+      <c r="I28">
+        <v>0.014419528165268982</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29">
+        <v>0.020760590769967203</v>
+      </c>
+      <c r="C29">
+        <v>0.013219984293699614</v>
+      </c>
+      <c r="D29">
+        <v>0.049316279951289052</v>
+      </c>
+      <c r="E29">
+        <v>0.036192984655705897</v>
+      </c>
+      <c r="F29">
+        <v>9.8063143565089842e-06</v>
+      </c>
+      <c r="G29">
+        <v>0.76905431143805891</v>
+      </c>
+      <c r="H29">
+        <v>0.10140568695545163</v>
+      </c>
+      <c r="I29">
+        <v>0.010040355621471313</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30">
+        <v>0.36429710105486679</v>
+      </c>
+      <c r="C30">
+        <v>0.0052589755536687011</v>
+      </c>
+      <c r="D30">
+        <v>0.25606991743771085</v>
+      </c>
+      <c r="E30">
+        <v>0.2722821328044655</v>
+      </c>
+      <c r="F30">
+        <v>0.004614663749724226</v>
+      </c>
+      <c r="G30">
+        <v>0.0020210897449714281</v>
+      </c>
+      <c r="H30">
+        <v>0.039178540532417615</v>
+      </c>
+      <c r="I30">
+        <v>0.056277579122174869</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31">
+        <v>0.41474703735246704</v>
+      </c>
+      <c r="C31">
+        <v>0.0091414149878871667</v>
+      </c>
+      <c r="D31">
+        <v>0.21471593724474619</v>
+      </c>
+      <c r="E31">
+        <v>0.2376922432933343</v>
+      </c>
+      <c r="F31">
+        <v>0.0029831975545789292</v>
+      </c>
+      <c r="G31">
+        <v>0.00067906412016812963</v>
+      </c>
+      <c r="H31">
+        <v>0.065443177072179198</v>
+      </c>
+      <c r="I31">
+        <v>0.054597928374638997</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32">
+        <v>0.35792650160116507</v>
+      </c>
+      <c r="C32">
+        <v>0.026133903369313757</v>
+      </c>
+      <c r="D32">
+        <v>0.20456341812658713</v>
+      </c>
+      <c r="E32">
+        <v>0.25806373663151838</v>
+      </c>
+      <c r="F32">
+        <v>0.024157241622510973</v>
+      </c>
+      <c r="G32">
+        <v>2.1056357553666521e-05</v>
+      </c>
+      <c r="H32">
+        <v>0.01052474704686117</v>
+      </c>
+      <c r="I32">
+        <v>0.11860939524448991</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33">
+        <v>0.35201039162049674</v>
+      </c>
+      <c r="C33">
+        <v>0.026866933591366361</v>
+      </c>
+      <c r="D33">
+        <v>0.23238932593582473</v>
+      </c>
+      <c r="E33">
+        <v>0.21807541101527245</v>
+      </c>
+      <c r="F33">
+        <v>0.0015277902817358449</v>
+      </c>
+      <c r="G33">
+        <v>0.00023895016536283116</v>
+      </c>
+      <c r="H33">
+        <v>0.064551963769772874</v>
+      </c>
+      <c r="I33">
+        <v>0.10433923362016832</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34">
+        <v>0.2670085081160658</v>
+      </c>
+      <c r="C34">
+        <v>0.018934468220365534</v>
+      </c>
+      <c r="D34">
+        <v>0.17574466683654755</v>
+      </c>
+      <c r="E34">
+        <v>0.25216654288536311</v>
+      </c>
+      <c r="F34">
+        <v>0.00035693000291768426</v>
+      </c>
+      <c r="G34">
+        <v>0.083590234399186183</v>
+      </c>
+      <c r="H34">
+        <v>0.15570403576875283</v>
+      </c>
+      <c r="I34">
+        <v>0.046494613770801309</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35">
+        <v>0.2895137859558965</v>
+      </c>
+      <c r="C35">
+        <v>0.045198026365174192</v>
+      </c>
+      <c r="D35">
+        <v>0.19248166636649194</v>
+      </c>
+      <c r="E35">
+        <v>0.21883913783767087</v>
+      </c>
+      <c r="F35">
+        <v>0.00020312053350583377</v>
+      </c>
+      <c r="G35">
+        <v>0.029802598164544839</v>
+      </c>
+      <c r="H35">
+        <v>0.18058374491899998</v>
+      </c>
+      <c r="I35">
+        <v>0.043377919857715774</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B36">
+        <v>0.26407568010356075</v>
+      </c>
+      <c r="C36">
+        <v>0.056727845130434357</v>
+      </c>
+      <c r="D36">
+        <v>0.16262355352403546</v>
+      </c>
+      <c r="E36">
+        <v>0.2713536997286965</v>
+      </c>
+      <c r="F36">
+        <v>0.00010601147684660335</v>
+      </c>
+      <c r="G36">
+        <v>0.059262742139839307</v>
+      </c>
+      <c r="H36">
+        <v>0.023280716737642312</v>
+      </c>
+      <c r="I36">
+        <v>0.16256975115894473</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37">
+        <v>0.24406489285840549</v>
+      </c>
+      <c r="C37">
+        <v>0.01665198620542982</v>
+      </c>
+      <c r="D37">
+        <v>0.22413234968717075</v>
+      </c>
+      <c r="E37">
+        <v>0.41579710160174338</v>
+      </c>
+      <c r="F37">
+        <v>0.0043359121296061018</v>
+      </c>
+      <c r="G37">
+        <v>0.0092701269095025792</v>
+      </c>
+      <c r="H37">
+        <v>0.01468943997577718</v>
+      </c>
+      <c r="I37">
+        <v>0.071058190632364543</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38">
+        <v>0.29920260139067012</v>
+      </c>
+      <c r="C38">
+        <v>0.0092121236645435461</v>
+      </c>
+      <c r="D38">
+        <v>0.24239557832386371</v>
+      </c>
+      <c r="E38">
+        <v>0.30867608309415701</v>
+      </c>
+      <c r="F38">
+        <v>0.0031090385816878391</v>
+      </c>
+      <c r="G38">
+        <v>0.0047040722498291982</v>
+      </c>
+      <c r="H38">
+        <v>0.056065884602257698</v>
+      </c>
+      <c r="I38">
+        <v>0.076634618092990964</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39">
+        <v>0.39839886109284545</v>
+      </c>
+      <c r="C39">
+        <v>0.0078046010645150734</v>
+      </c>
+      <c r="D39">
+        <v>0.19670276809154716</v>
+      </c>
+      <c r="E39">
+        <v>0.28672896365959849</v>
+      </c>
+      <c r="F39">
+        <v>0.0027483746323552416</v>
+      </c>
+      <c r="G39">
+        <v>0.0056448570145631559</v>
+      </c>
+      <c r="H39">
+        <v>0.041559796268972646</v>
+      </c>
+      <c r="I39">
+        <v>0.06041177817560274</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40">
+        <v>0.24767792589993282</v>
+      </c>
+      <c r="C40">
+        <v>0.057043338634991975</v>
+      </c>
+      <c r="D40">
+        <v>0.21653876068252478</v>
+      </c>
+      <c r="E40">
+        <v>0.26579993272177316</v>
+      </c>
+      <c r="F40">
+        <v>0.0056994094374059681</v>
+      </c>
+      <c r="G40">
+        <v>0.055075367833087807</v>
+      </c>
+      <c r="H40">
+        <v>0.0068213172877289348</v>
+      </c>
+      <c r="I40">
+        <v>0.14534394750255455</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B41">
+        <v>0.3490965305123388</v>
+      </c>
+      <c r="C41">
+        <v>0.0066744185103344679</v>
+      </c>
+      <c r="D41">
+        <v>0.22523674651233561</v>
+      </c>
+      <c r="E41">
+        <v>0.28012281456564281</v>
+      </c>
+      <c r="F41">
+        <v>0.0012901792114683444</v>
+      </c>
+      <c r="G41">
+        <v>0.00070116872459091868</v>
+      </c>
+      <c r="H41">
+        <v>0.078616401445070594</v>
+      </c>
+      <c r="I41">
+        <v>0.05826174051821844</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42">
+        <v>0.28571232391254153</v>
+      </c>
+      <c r="C42">
+        <v>0.021840526618372876</v>
+      </c>
+      <c r="D42">
+        <v>0.25145108138135758</v>
+      </c>
+      <c r="E42">
+        <v>0.26731704470943313</v>
+      </c>
+      <c r="F42">
+        <v>0.0047790432391740991</v>
+      </c>
+      <c r="G42">
+        <v>0.00011458536525940546</v>
+      </c>
+      <c r="H42">
+        <v>0.05713728053547202</v>
+      </c>
+      <c r="I42">
+        <v>0.11164811423838931</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43">
+        <v>0.29838644466059649</v>
+      </c>
+      <c r="C43">
+        <v>0.008695565050967342</v>
+      </c>
+      <c r="D43">
+        <v>0.209596389436528</v>
+      </c>
+      <c r="E43">
+        <v>0.28402931388786673</v>
+      </c>
+      <c r="F43">
+        <v>0.001667771619516365</v>
+      </c>
+      <c r="G43">
+        <v>0.004102921792502396</v>
+      </c>
+      <c r="H43">
+        <v>0.13707330366968193</v>
+      </c>
+      <c r="I43">
+        <v>0.056448289882340651</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44">
+        <v>0.28615219155129018</v>
+      </c>
+      <c r="C44">
+        <v>0.056811596958438702</v>
+      </c>
+      <c r="D44">
+        <v>0.20454955122011262</v>
+      </c>
+      <c r="E44">
+        <v>0.25218394428748719</v>
+      </c>
+      <c r="F44">
+        <v>0.00064127025156211651</v>
+      </c>
+      <c r="G44">
+        <v>0.0027413430481542486</v>
+      </c>
+      <c r="H44">
+        <v>0.13188675134990294</v>
+      </c>
+      <c r="I44">
+        <v>0.065033351333051978</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45">
+        <v>0.13460437041812889</v>
+      </c>
+      <c r="C45">
+        <v>0.041729685683227366</v>
+      </c>
+      <c r="D45">
+        <v>0.19424666089573805</v>
+      </c>
+      <c r="E45">
+        <v>0.16343579726765239</v>
+      </c>
+      <c r="F45">
+        <v>0.00029917024651072348</v>
+      </c>
+      <c r="G45">
+        <v>0.18788069931552709</v>
+      </c>
+      <c r="H45">
+        <v>0.21106921385240063</v>
+      </c>
+      <c r="I45">
+        <v>0.066734402320814817</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46">
+        <v>0.28800315797420922</v>
+      </c>
+      <c r="C46">
+        <v>0.018436497695636572</v>
+      </c>
+      <c r="D46">
+        <v>0.23672277665606817</v>
+      </c>
+      <c r="E46">
+        <v>0.31347405455872085</v>
+      </c>
+      <c r="F46">
+        <v>0.0051399195504894723</v>
+      </c>
+      <c r="G46">
+        <v>0.0065984367701051126</v>
+      </c>
+      <c r="H46">
+        <v>0.01965873081728458</v>
+      </c>
+      <c r="I46">
+        <v>0.11196642597748611</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B47">
+        <v>0.063595524684348634</v>
+      </c>
+      <c r="C47">
+        <v>0.0047952137975368382</v>
+      </c>
+      <c r="D47">
+        <v>0.043195393307289255</v>
+      </c>
+      <c r="E47">
+        <v>0.027290453554084562</v>
+      </c>
+      <c r="F47">
+        <v>0.82084972434982717</v>
+      </c>
+      <c r="G47">
+        <v>3.2465849655308835e-08</v>
+      </c>
+      <c r="H47">
+        <v>8.5420169690363247e-05</v>
+      </c>
+      <c r="I47">
+        <v>0.040188237671373507</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48">
+        <v>0.04462947659094943</v>
+      </c>
+      <c r="C48">
+        <v>0.009810743767475226</v>
+      </c>
+      <c r="D48">
+        <v>0.048459798755025228</v>
+      </c>
+      <c r="E48">
+        <v>0.026431755516557343</v>
+      </c>
+      <c r="F48">
+        <v>0.83681068162133054</v>
+      </c>
+      <c r="G48">
+        <v>4.1498153618728945e-07</v>
+      </c>
+      <c r="H48">
+        <v>0.00041794137943346833</v>
+      </c>
+      <c r="I48">
+        <v>0.03343918738769263</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49">
+        <v>0.04391356942579594</v>
+      </c>
+      <c r="C49">
+        <v>0.004292011459492759</v>
+      </c>
+      <c r="D49">
+        <v>0.046368986872179337</v>
+      </c>
+      <c r="E49">
+        <v>0.03349419368098442</v>
+      </c>
+      <c r="F49">
+        <v>0.8360592945056925</v>
+      </c>
+      <c r="G49">
+        <v>3.8918589212390048e-08</v>
+      </c>
+      <c r="H49">
+        <v>8.2603440544305715e-05</v>
+      </c>
+      <c r="I49">
+        <v>0.035789301696721551</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50">
+        <v>0.066399972041000177</v>
+      </c>
+      <c r="C50">
+        <v>0.0020136542467722586</v>
+      </c>
+      <c r="D50">
+        <v>0.038493508577983282</v>
+      </c>
+      <c r="E50">
+        <v>0.028052420242436329</v>
+      </c>
+      <c r="F50">
+        <v>0.81358574651152771</v>
+      </c>
+      <c r="G50">
+        <v>4.1356001042400423e-09</v>
+      </c>
+      <c r="H50">
+        <v>1.9389131367267189e-05</v>
+      </c>
+      <c r="I50">
+        <v>0.051435305113312943</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51">
+        <v>0.049415976152161332</v>
+      </c>
+      <c r="C51">
+        <v>0.0028983611001416661</v>
+      </c>
+      <c r="D51">
+        <v>0.046243228343338716</v>
+      </c>
+      <c r="E51">
+        <v>0.028086784692223348</v>
+      </c>
+      <c r="F51">
+        <v>0.84960050855061486</v>
+      </c>
+      <c r="G51">
+        <v>8.5276729120282026e-08</v>
+      </c>
+      <c r="H51">
+        <v>9.9587454331326989e-05</v>
+      </c>
+      <c r="I51">
+        <v>0.023655468430459601</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52">
+        <v>0.061508284717651199</v>
+      </c>
+      <c r="C52">
+        <v>0.011275301741949897</v>
+      </c>
+      <c r="D52">
+        <v>0.043918313125550015</v>
+      </c>
+      <c r="E52">
+        <v>0.039158828064481864</v>
+      </c>
+      <c r="F52">
+        <v>0.81923788721539637</v>
+      </c>
+      <c r="G52">
+        <v>1.4375158653353764e-06</v>
+      </c>
+      <c r="H52">
+        <v>0.0003368453598472161</v>
+      </c>
+      <c r="I52">
+        <v>0.024563102259258313</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53">
+        <v>0.039981314361117938</v>
+      </c>
+      <c r="C53">
+        <v>0.0043689983658589202</v>
+      </c>
+      <c r="D53">
+        <v>0.045265623256645016</v>
+      </c>
+      <c r="E53">
+        <v>0.044555917137546787</v>
+      </c>
+      <c r="F53">
+        <v>0.82090521223769342</v>
+      </c>
+      <c r="G53">
+        <v>6.6606580736119919e-08</v>
+      </c>
+      <c r="H53">
+        <v>8.5065754804756241e-05</v>
+      </c>
+      <c r="I53">
+        <v>0.044837802279752294</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54">
+        <v>0.033676609413235095</v>
+      </c>
+      <c r="C54">
+        <v>0.0050409395553480136</v>
+      </c>
+      <c r="D54">
+        <v>0.046481509430542023</v>
+      </c>
+      <c r="E54">
+        <v>0.026552121393151641</v>
+      </c>
+      <c r="F54">
+        <v>0.85905724508271641</v>
+      </c>
+      <c r="G54">
+        <v>1.3733291832386937e-07</v>
+      </c>
+      <c r="H54">
+        <v>4.5936227718452651e-05</v>
+      </c>
+      <c r="I54">
+        <v>0.029145501564370055</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55">
+        <v>0.035451234433955037</v>
+      </c>
+      <c r="C55">
+        <v>0.0099562128002927807</v>
+      </c>
+      <c r="D55">
+        <v>0.04716837283291446</v>
+      </c>
+      <c r="E55">
+        <v>0.061324836768460123</v>
+      </c>
+      <c r="F55">
+        <v>0.79485837407198956</v>
+      </c>
+      <c r="G55">
+        <v>2.6355504465514375e-07</v>
+      </c>
+      <c r="H55">
+        <v>0.00015812440795753762</v>
+      </c>
+      <c r="I55">
+        <v>0.051082581129385823</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56">
+        <v>0.018286873104093094</v>
+      </c>
+      <c r="C56">
+        <v>0.002155569179455607</v>
+      </c>
+      <c r="D56">
+        <v>0.03978787439735524</v>
+      </c>
+      <c r="E56">
+        <v>0.066898318928793027</v>
+      </c>
+      <c r="F56">
+        <v>0.83592913289791337</v>
+      </c>
+      <c r="G56">
+        <v>2.5000256180315296e-08</v>
+      </c>
+      <c r="H56">
+        <v>6.4264424523761803e-07</v>
+      </c>
+      <c r="I56">
+        <v>0.036941563847888291</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57">
+        <v>0.046200634366765081</v>
+      </c>
+      <c r="C57">
+        <v>0.0092756615264878925</v>
+      </c>
+      <c r="D57">
+        <v>0.047442456794703304</v>
+      </c>
+      <c r="E57">
+        <v>0.029391518955736964</v>
+      </c>
+      <c r="F57">
+        <v>0.83330568066189414</v>
+      </c>
+      <c r="G57">
+        <v>6.6675706653749187e-07</v>
+      </c>
+      <c r="H57">
+        <v>0.0006221135675924858</v>
+      </c>
+      <c r="I57">
+        <v>0.033761267369753573</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58">
+        <v>0.0043746293186488682</v>
+      </c>
+      <c r="C58">
+        <v>0.00059423331693077709</v>
+      </c>
+      <c r="D58">
+        <v>0.045969404253373779</v>
+      </c>
+      <c r="E58">
+        <v>0.0097092815425270148</v>
+      </c>
+      <c r="F58">
+        <v>0.9152707991361273</v>
+      </c>
+      <c r="G58">
+        <v>7.2947906164925783e-06</v>
+      </c>
+      <c r="H58">
+        <v>1.0223022892898854e-07</v>
+      </c>
+      <c r="I58">
+        <v>0.02407425541154689</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59">
+        <v>0.0071657584509749522</v>
+      </c>
+      <c r="C59">
+        <v>0.0004181410542111581</v>
+      </c>
+      <c r="D59">
+        <v>0.034984611749690829</v>
+      </c>
+      <c r="E59">
+        <v>0.021443814844438847</v>
+      </c>
+      <c r="F59">
+        <v>0.92026898920077937</v>
+      </c>
+      <c r="G59">
+        <v>8.233420092387033e-05</v>
+      </c>
+      <c r="H59">
+        <v>7.7441571242952467e-07</v>
+      </c>
+      <c r="I59">
+        <v>0.015635576083268505</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60">
+        <v>0.010428942442234548</v>
+      </c>
+      <c r="C60">
+        <v>0.0011010457694125169</v>
+      </c>
+      <c r="D60">
+        <v>0.034140105103938057</v>
+      </c>
+      <c r="E60">
+        <v>0.0024055605137981843</v>
+      </c>
+      <c r="F60">
+        <v>8.2973970874437611e-06</v>
+      </c>
+      <c r="G60">
+        <v>0.87959520023969695</v>
+      </c>
+      <c r="H60">
+        <v>0.049394137208370575</v>
+      </c>
+      <c r="I60">
+        <v>0.02292671132546174</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61">
+        <v>0.0042388867625842387</v>
+      </c>
+      <c r="C61">
+        <v>0.001454721295789203</v>
+      </c>
+      <c r="D61">
+        <v>0.031081843053853444</v>
+      </c>
+      <c r="E61">
+        <v>0.000130729179893162</v>
+      </c>
+      <c r="F61">
+        <v>5.6405174325580712e-06</v>
+      </c>
+      <c r="G61">
+        <v>0.9015150871616201</v>
+      </c>
+      <c r="H61">
+        <v>3.9881067972889365e-06</v>
+      </c>
+      <c r="I61">
+        <v>0.061569103922029918</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62">
+        <v>0.0072146967125140595</v>
+      </c>
+      <c r="C62">
+        <v>0.0032259105858567002</v>
+      </c>
+      <c r="D62">
+        <v>0.021375318425636246</v>
+      </c>
+      <c r="E62">
+        <v>0.0028015663426876575</v>
+      </c>
+      <c r="F62">
+        <v>3.9615518417654116e-06</v>
+      </c>
+      <c r="G62">
+        <v>0.8946650599499858</v>
+      </c>
+      <c r="H62">
+        <v>0.002206163943765035</v>
+      </c>
+      <c r="I62">
+        <v>0.068507322487712671</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63">
+        <v>0.0034656919605743487</v>
+      </c>
+      <c r="C63">
+        <v>3.6649051913921303e-05</v>
+      </c>
+      <c r="D63">
+        <v>0.025276929314844217</v>
+      </c>
+      <c r="E63">
+        <v>0.0011796315644855985</v>
+      </c>
+      <c r="F63">
+        <v>9.0624249267090579e-06</v>
+      </c>
+      <c r="G63">
+        <v>0.90616634860393486</v>
+      </c>
+      <c r="H63">
+        <v>0.0090478029872270768</v>
+      </c>
+      <c r="I63">
+        <v>0.05481788409209324</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64">
+        <v>0.055916171925959546</v>
+      </c>
+      <c r="C64">
+        <v>0.0099064419521194685</v>
+      </c>
+      <c r="D64">
+        <v>0.055843893348523854</v>
+      </c>
+      <c r="E64">
+        <v>0.053880373931898345</v>
+      </c>
+      <c r="F64">
+        <v>3.626342107083725e-05</v>
+      </c>
+      <c r="G64">
+        <v>0.77006173150390966</v>
+      </c>
+      <c r="H64">
+        <v>0.039913307681769233</v>
+      </c>
+      <c r="I64">
+        <v>0.014441816234748944</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65">
+        <v>0.039366570673629177</v>
+      </c>
+      <c r="C65">
+        <v>0.016603875719526429</v>
+      </c>
+      <c r="D65">
+        <v>0.063463564380601634</v>
+      </c>
+      <c r="E65">
+        <v>0.07789135576823171</v>
+      </c>
+      <c r="F65">
+        <v>0.00039581859861940121</v>
+      </c>
+      <c r="G65">
+        <v>0.75761669242757446</v>
+      </c>
+      <c r="H65">
+        <v>0.016954226713007944</v>
+      </c>
+      <c r="I65">
+        <v>0.027707895718809213</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66">
+        <v>0.051752206379936071</v>
+      </c>
+      <c r="C66">
+        <v>0.076841602326790867</v>
+      </c>
+      <c r="D66">
+        <v>0.051003433069964355</v>
+      </c>
+      <c r="E66">
+        <v>0.035407137543174649</v>
+      </c>
+      <c r="F66">
+        <v>2.9715729789425356e-05</v>
+      </c>
+      <c r="G66">
+        <v>0.72080179062406813</v>
+      </c>
+      <c r="H66">
+        <v>0.050857603973405364</v>
+      </c>
+      <c r="I66">
+        <v>0.01330651035287115</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B67">
+        <v>0.03601103359551544</v>
+      </c>
+      <c r="C67">
+        <v>0.010844919401700976</v>
+      </c>
+      <c r="D67">
+        <v>0.056656632341000913</v>
+      </c>
+      <c r="E67">
+        <v>0.010702433924667786</v>
+      </c>
+      <c r="F67">
+        <v>0.00022361892099185442</v>
+      </c>
+      <c r="G67">
+        <v>0.82908305350589684</v>
+      </c>
+      <c r="H67">
+        <v>0.028737074647828015</v>
+      </c>
+      <c r="I67">
+        <v>0.027741233662398158</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68">
+        <v>0.038130785425035459</v>
+      </c>
+      <c r="C68">
+        <v>0.034554518383458473</v>
+      </c>
+      <c r="D68">
+        <v>0.050221183751558485</v>
+      </c>
+      <c r="E68">
+        <v>0.025424461354945502</v>
+      </c>
+      <c r="F68">
+        <v>2.9733637190660192e-05</v>
+      </c>
+      <c r="G68">
+        <v>0.7500969876043978</v>
+      </c>
+      <c r="H68">
+        <v>0.08617538547989112</v>
+      </c>
+      <c r="I68">
+        <v>0.015366944363522523</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69">
+        <v>0.027870128753206613</v>
+      </c>
+      <c r="C69">
+        <v>0.0049882014046453739</v>
+      </c>
+      <c r="D69">
+        <v>0.064578308904816681</v>
+      </c>
+      <c r="E69">
+        <v>0.009406078545643428</v>
+      </c>
+      <c r="F69">
+        <v>0.00029593399223311058</v>
+      </c>
+      <c r="G69">
+        <v>0.8108862365807189</v>
+      </c>
+      <c r="H69">
+        <v>0.016867563373094686</v>
+      </c>
+      <c r="I69">
+        <v>0.065107548445641192</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70">
+        <v>0.021549283100749363</v>
+      </c>
+      <c r="C70">
+        <v>0.0021461045692410222</v>
+      </c>
+      <c r="D70">
+        <v>0.051962410217124222</v>
+      </c>
+      <c r="E70">
+        <v>0.010871292383446859</v>
+      </c>
+      <c r="F70">
+        <v>1.7732131713613272e-05</v>
+      </c>
+      <c r="G70">
+        <v>0.87115293225882273</v>
+      </c>
+      <c r="H70">
+        <v>0.022377833237979226</v>
+      </c>
+      <c r="I70">
+        <v>0.019922412100923034</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71">
+        <v>0.0482509322411327</v>
+      </c>
+      <c r="C71">
+        <v>0.016518380451735482</v>
+      </c>
+      <c r="D71">
+        <v>0.050061398758791183</v>
+      </c>
+      <c r="E71">
+        <v>0.035161181991601273</v>
+      </c>
+      <c r="F71">
+        <v>2.3922472630550523e-05</v>
+      </c>
+      <c r="G71">
+        <v>0.73436473221173948</v>
+      </c>
+      <c r="H71">
+        <v>0.10075901506374445</v>
+      </c>
+      <c r="I71">
+        <v>0.014860436808624807</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72">
+        <v>0.080985564758247142</v>
+      </c>
+      <c r="C72">
+        <v>0.24760626865034091</v>
+      </c>
+      <c r="D72">
+        <v>0.075485450147952812</v>
+      </c>
+      <c r="E72">
+        <v>0.13603925516185217</v>
+      </c>
+      <c r="F72">
+        <v>0.00028694443033801102</v>
+      </c>
+      <c r="G72">
+        <v>0.32437232737282601</v>
+      </c>
+      <c r="H72">
+        <v>0.11933488706239757</v>
+      </c>
+      <c r="I72">
+        <v>0.01588930241604531</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73">
+        <v>0.046732534263553525</v>
+      </c>
+      <c r="C73">
+        <v>0.047811766338080111</v>
+      </c>
+      <c r="D73">
+        <v>0.056767766030878512</v>
+      </c>
+      <c r="E73">
+        <v>0.021890547851236574</v>
+      </c>
+      <c r="F73">
+        <v>1.6132226191912467e-05</v>
+      </c>
+      <c r="G73">
+        <v>0.69965273530952954</v>
+      </c>
+      <c r="H73">
+        <v>0.1141126221776311</v>
+      </c>
+      <c r="I73">
+        <v>0.013015895802898646</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74">
+        <v>0.030908994252274277</v>
+      </c>
+      <c r="C74">
+        <v>0.015153895031144912</v>
+      </c>
+      <c r="D74">
+        <v>0.050850780167361061</v>
+      </c>
+      <c r="E74">
+        <v>0.025933801314162275</v>
+      </c>
+      <c r="F74">
+        <v>1.2264655830961147e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.74198229754775114</v>
+      </c>
+      <c r="H74">
+        <v>0.12317296083930694</v>
+      </c>
+      <c r="I74">
+        <v>0.011985006192168371</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75">
+        <v>0.02550220081867919</v>
+      </c>
+      <c r="C75">
+        <v>0.0049515942081090484</v>
+      </c>
+      <c r="D75">
+        <v>0.040191791459279445</v>
+      </c>
+      <c r="E75">
+        <v>0.017744329957608298</v>
+      </c>
+      <c r="F75">
+        <v>7.7407356418658712e-06</v>
+      </c>
+      <c r="G75">
+        <v>0.79564775460554316</v>
+      </c>
+      <c r="H75">
+        <v>0.10141501510232975</v>
+      </c>
+      <c r="I75">
+        <v>0.014539573112809168</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B76">
+        <v>0.022395245756922567</v>
+      </c>
+      <c r="C76">
+        <v>0.0067923181055173547</v>
+      </c>
+      <c r="D76">
+        <v>0.056139852872007845</v>
+      </c>
+      <c r="E76">
+        <v>0.00454218978610959</v>
+      </c>
+      <c r="F76">
+        <v>7.3449556284750207e-06</v>
+      </c>
+      <c r="G76">
+        <v>0.86177177190953425</v>
+      </c>
+      <c r="H76">
+        <v>0.026327369110383445</v>
+      </c>
+      <c r="I76">
+        <v>0.022023907503896545</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77">
+        <v>0.034429992659157319</v>
+      </c>
+      <c r="C77">
+        <v>0.018006747103685258</v>
+      </c>
+      <c r="D77">
+        <v>0.053348441466500321</v>
+      </c>
+      <c r="E77">
+        <v>0.0075603921958535608</v>
+      </c>
+      <c r="F77">
+        <v>1.0982596513299057e-05</v>
+      </c>
+      <c r="G77">
+        <v>0.78349810274934817</v>
+      </c>
+      <c r="H77">
+        <v>0.088953291115515878</v>
+      </c>
+      <c r="I77">
+        <v>0.014192050113426301</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78">
+        <v>0.02726105791146682</v>
+      </c>
+      <c r="C78">
+        <v>0.0054541003503383607</v>
+      </c>
+      <c r="D78">
+        <v>0.041771551632229162</v>
+      </c>
+      <c r="E78">
+        <v>0.010964518112138708</v>
+      </c>
+      <c r="F78">
+        <v>8.3936222272770448e-06</v>
+      </c>
+      <c r="G78">
+        <v>0.75701836696175739</v>
+      </c>
+      <c r="H78">
+        <v>0.14348386961756146</v>
+      </c>
+      <c r="I78">
+        <v>0.014038141792280754</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79">
+        <v>0.019508401103170894</v>
+      </c>
+      <c r="C79">
+        <v>0.0014819875088235076</v>
+      </c>
+      <c r="D79">
+        <v>0.039850779290733468</v>
+      </c>
+      <c r="E79">
+        <v>0.013518318419496276</v>
+      </c>
+      <c r="F79">
+        <v>9.9442867254863069e-06</v>
+      </c>
+      <c r="G79">
+        <v>0.73023415268657821</v>
+      </c>
+      <c r="H79">
+        <v>0.17403528002230778</v>
+      </c>
+      <c r="I79">
+        <v>0.021361136682164272</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80">
+        <v>0.0041348933662710653</v>
+      </c>
+      <c r="C80">
+        <v>0.00031454495708445741</v>
+      </c>
+      <c r="D80">
+        <v>0.045210465417219965</v>
+      </c>
+      <c r="E80">
+        <v>6.7630433519445129e-05</v>
+      </c>
+      <c r="F80">
+        <v>2.6101563744099372e-05</v>
+      </c>
+      <c r="G80">
+        <v>0.84660222337362701</v>
+      </c>
+      <c r="H80">
+        <v>0.00096761490061004313</v>
+      </c>
+      <c r="I80">
+        <v>0.10267652598792387</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81">
+        <v>0.029944266553252396</v>
+      </c>
+      <c r="C81">
+        <v>0.0067602817283765413</v>
+      </c>
+      <c r="D81">
+        <v>0.050826118381685922</v>
+      </c>
+      <c r="E81">
+        <v>0.0046094052016734197</v>
+      </c>
+      <c r="F81">
+        <v>3.1210145865180759e-06</v>
+      </c>
+      <c r="G81">
+        <v>0.84281435652952874</v>
+      </c>
+      <c r="H81">
+        <v>0.0023667018558128591</v>
+      </c>
+      <c r="I81">
+        <v>0.062675748735083636</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B82">
+        <v>0.016911628112933529</v>
+      </c>
+      <c r="C82">
+        <v>0.0033839689975746854</v>
+      </c>
+      <c r="D82">
+        <v>0.10591723649049042</v>
+      </c>
+      <c r="E82">
+        <v>0.085009535170358405</v>
+      </c>
+      <c r="F82">
+        <v>0.00018531499955431319</v>
+      </c>
+      <c r="G82">
+        <v>0.0077096871894722406</v>
+      </c>
+      <c r="H82">
+        <v>0.67540324994883427</v>
+      </c>
+      <c r="I82">
+        <v>0.10547937909078206</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83">
+        <v>0.032751348631670688</v>
+      </c>
+      <c r="C83">
+        <v>0.0030406524529835097</v>
+      </c>
+      <c r="D83">
+        <v>0.12521168129152146</v>
+      </c>
+      <c r="E83">
+        <v>0.064448033082394066</v>
+      </c>
+      <c r="F83">
+        <v>0.00069087602824481164</v>
+      </c>
+      <c r="G83">
+        <v>0.050446452787146941</v>
+      </c>
+      <c r="H83">
+        <v>0.52701037409298623</v>
+      </c>
+      <c r="I83">
+        <v>0.19640058163305221</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84">
+        <v>0.022126621064054702</v>
+      </c>
+      <c r="C84">
+        <v>0.0015839982627501767</v>
+      </c>
+      <c r="D84">
+        <v>0.094206027789387095</v>
+      </c>
+      <c r="E84">
+        <v>0.06411783315475908</v>
+      </c>
+      <c r="F84">
+        <v>0.00028225215786745856</v>
+      </c>
+      <c r="G84">
+        <v>0.086216059471350026</v>
+      </c>
+      <c r="H84">
+        <v>0.65527435155716995</v>
+      </c>
+      <c r="I84">
+        <v>0.07619285654266135</v>
+      </c>
+      <c r="J84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85">
+        <v>0.022307782443617426</v>
+      </c>
+      <c r="C85">
+        <v>0.0019225823359830091</v>
+      </c>
+      <c r="D85">
+        <v>0.071416847990036003</v>
+      </c>
+      <c r="E85">
+        <v>0.037040277576328065</v>
+      </c>
+      <c r="F85">
+        <v>0.00097546223807516491</v>
+      </c>
+      <c r="G85">
+        <v>0.0087473423279118764</v>
+      </c>
+      <c r="H85">
+        <v>0.76300772768138436</v>
+      </c>
+      <c r="I85">
+        <v>0.094581977406664144</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86">
+        <v>0.025801061618013089</v>
+      </c>
+      <c r="C86">
+        <v>0.0039633164454851173</v>
+      </c>
+      <c r="D86">
+        <v>0.082283302844636225</v>
+      </c>
+      <c r="E86">
+        <v>0.061794475813445708</v>
+      </c>
+      <c r="F86">
+        <v>0.00014029162073189407</v>
+      </c>
+      <c r="G86">
+        <v>0.031313163963372782</v>
+      </c>
+      <c r="H86">
+        <v>0.66231561798956462</v>
+      </c>
+      <c r="I86">
+        <v>0.13238876970475061</v>
+      </c>
+      <c r="J86">
+        <v>7</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87">
+        <v>0.023254040666225578</v>
+      </c>
+      <c r="C87">
+        <v>0.0028436969912589934</v>
+      </c>
+      <c r="D87">
+        <v>0.16546166240621044</v>
+      </c>
+      <c r="E87">
+        <v>0.12166936215602518</v>
+      </c>
+      <c r="F87">
+        <v>0.00070508299417310039</v>
+      </c>
+      <c r="G87">
+        <v>0.025690482228075059</v>
+      </c>
+      <c r="H87">
+        <v>0.39801071479563971</v>
+      </c>
+      <c r="I87">
+        <v>0.26236495776239183</v>
+      </c>
+      <c r="J87">
+        <v>7</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B88">
+        <v>0.030317483557284898</v>
+      </c>
+      <c r="C88">
+        <v>0.0075034267574776914</v>
+      </c>
+      <c r="D88">
+        <v>0.068148799147105588</v>
+      </c>
+      <c r="E88">
+        <v>0.030128194512655141</v>
+      </c>
+      <c r="F88">
+        <v>0.00015967111657537995</v>
+      </c>
+      <c r="G88">
+        <v>0.029828374440719799</v>
+      </c>
+      <c r="H88">
+        <v>0.77559499337431981</v>
+      </c>
+      <c r="I88">
+        <v>0.058319057093861676</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B89">
+        <v>0.05992763521012727</v>
+      </c>
+      <c r="C89">
+        <v>0.017545201294440385</v>
+      </c>
+      <c r="D89">
+        <v>0.09138031148790865</v>
+      </c>
+      <c r="E89">
+        <v>0.071930936115995103</v>
+      </c>
+      <c r="F89">
+        <v>6.3049093421437848e-05</v>
+      </c>
+      <c r="G89">
+        <v>0.043021882720314812</v>
+      </c>
+      <c r="H89">
+        <v>0.66881618257260411</v>
+      </c>
+      <c r="I89">
+        <v>0.047314801505188284</v>
+      </c>
+      <c r="J89">
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90">
+        <v>0.048357355770885457</v>
+      </c>
+      <c r="C90">
+        <v>0.0082878436863413653</v>
+      </c>
+      <c r="D90">
+        <v>0.041519316076675861</v>
+      </c>
+      <c r="E90">
+        <v>0.0080982030819501654</v>
+      </c>
+      <c r="F90">
+        <v>1.5502960735534603e-05</v>
+      </c>
+      <c r="G90">
+        <v>0.0099372511641158384</v>
+      </c>
+      <c r="H90">
+        <v>0.86386059911972735</v>
+      </c>
+      <c r="I90">
+        <v>0.01992392813956833</v>
+      </c>
+      <c r="J90">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91">
+        <v>0.041097087399983884</v>
+      </c>
+      <c r="C91">
+        <v>0.0049860369075184173</v>
+      </c>
+      <c r="D91">
+        <v>0.052957318281397735</v>
+      </c>
+      <c r="E91">
+        <v>0.022048516809910546</v>
+      </c>
+      <c r="F91">
+        <v>7.2300077045407782e-05</v>
+      </c>
+      <c r="G91">
+        <v>0.0051806264719596448</v>
+      </c>
+      <c r="H91">
+        <v>0.83138189156755227</v>
+      </c>
+      <c r="I91">
+        <v>0.042276222484632163</v>
+      </c>
+      <c r="J91">
+        <v>7</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B92">
+        <v>0.10337829506068501</v>
+      </c>
+      <c r="C92">
+        <v>0.027986229472816961</v>
+      </c>
+      <c r="D92">
+        <v>0.099902833910760519</v>
+      </c>
+      <c r="E92">
+        <v>0.039650648192450469</v>
+      </c>
+      <c r="F92">
+        <v>3.1359883893489287e-05</v>
+      </c>
+      <c r="G92">
+        <v>0.074028915314544294</v>
+      </c>
+      <c r="H92">
+        <v>0.60863596831549005</v>
+      </c>
+      <c r="I92">
+        <v>0.046385749849359253</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B93">
+        <v>0.066941842877774743</v>
+      </c>
+      <c r="C93">
+        <v>0.012237498030662207</v>
+      </c>
+      <c r="D93">
+        <v>0.06585794795477673</v>
+      </c>
+      <c r="E93">
+        <v>0.045967497739197366</v>
+      </c>
+      <c r="F93">
+        <v>2.543738466472374e-05</v>
+      </c>
+      <c r="G93">
+        <v>0.07722434883201669</v>
+      </c>
+      <c r="H93">
+        <v>0.69775727776722163</v>
+      </c>
+      <c r="I93">
+        <v>0.033988149413685796</v>
+      </c>
+      <c r="J93">
+        <v>7</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B94">
+        <v>0.26830542812884206</v>
+      </c>
+      <c r="C94">
+        <v>0.093132681576172507</v>
+      </c>
+      <c r="D94">
+        <v>0.059150635899108232</v>
+      </c>
+      <c r="E94">
+        <v>0.056705734894203767</v>
+      </c>
+      <c r="F94">
+        <v>1.7693738033657044e-05</v>
+      </c>
+      <c r="G94">
+        <v>0.007387651648155664</v>
+      </c>
+      <c r="H94">
+        <v>0.45483393976753261</v>
+      </c>
+      <c r="I94">
+        <v>0.060466234347951384</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95">
+        <v>0.037980259766171497</v>
+      </c>
+      <c r="C95">
+        <v>0.0044812483350906698</v>
+      </c>
+      <c r="D95">
+        <v>0.14870834722555856</v>
+      </c>
+      <c r="E95">
+        <v>0.15560175113906635</v>
+      </c>
+      <c r="F95">
+        <v>0.00037791574106918913</v>
+      </c>
+      <c r="G95">
+        <v>0.019577965512130365</v>
+      </c>
+      <c r="H95">
+        <v>0.45472190325016759</v>
+      </c>
+      <c r="I95">
+        <v>0.17855060903074579</v>
+      </c>
+      <c r="J95">
+        <v>7</v>
+      </c>
+      <c r="K95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96">
+        <v>0.019040661420998545</v>
+      </c>
+      <c r="C96">
+        <v>0.0027356076282329289</v>
+      </c>
+      <c r="D96">
+        <v>0.11844903631565974</v>
+      </c>
+      <c r="E96">
+        <v>0.10967634796755796</v>
+      </c>
+      <c r="F96">
+        <v>0.00038824159250108313</v>
+      </c>
+      <c r="G96">
+        <v>0.03737328568290775</v>
+      </c>
+      <c r="H96">
+        <v>0.55298518275318942</v>
+      </c>
+      <c r="I96">
+        <v>0.15935163663895247</v>
+      </c>
+      <c r="J96">
+        <v>7</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97">
+        <v>0.1518477524472249</v>
+      </c>
+      <c r="C97">
+        <v>0.032200205734122828</v>
+      </c>
+      <c r="D97">
+        <v>0.23003725355759913</v>
+      </c>
+      <c r="E97">
+        <v>0.17093334349360298</v>
+      </c>
+      <c r="F97">
+        <v>0.010100501922235177</v>
+      </c>
+      <c r="G97">
+        <v>9.4030450610701617e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.11132794895467307</v>
+      </c>
+      <c r="I97">
+        <v>0.29345896343993116</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98">
+        <v>0.039033365303300788</v>
+      </c>
+      <c r="C98">
+        <v>0.010418822330449303</v>
+      </c>
+      <c r="D98">
+        <v>0.12988467221232464</v>
+      </c>
+      <c r="E98">
+        <v>0.18070659518010027</v>
+      </c>
+      <c r="F98">
+        <v>0.00030421575030527818</v>
+      </c>
+      <c r="G98">
+        <v>0.0048599569975923155</v>
+      </c>
+      <c r="H98">
+        <v>0.36970584938516204</v>
+      </c>
+      <c r="I98">
+        <v>0.26508652284076539</v>
+      </c>
+      <c r="J98">
+        <v>7</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99">
+        <v>0.0085704120675436073</v>
+      </c>
+      <c r="C99">
+        <v>0.00085295880665541132</v>
+      </c>
+      <c r="D99">
+        <v>0.061679841550885482</v>
+      </c>
+      <c r="E99">
+        <v>0.10200678765041854</v>
+      </c>
+      <c r="F99">
+        <v>0.00019906591990238176</v>
+      </c>
+      <c r="G99">
+        <v>0.029473344459487506</v>
+      </c>
+      <c r="H99">
+        <v>0.73727097269243913</v>
+      </c>
+      <c r="I99">
+        <v>0.059946616852667868</v>
+      </c>
+      <c r="J99">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100">
+        <v>0.036536640588264044</v>
+      </c>
+      <c r="C100">
+        <v>0.0047541038086505423</v>
+      </c>
+      <c r="D100">
+        <v>0.08766729403197035</v>
+      </c>
+      <c r="E100">
+        <v>0.031393503632563158</v>
+      </c>
+      <c r="F100">
+        <v>0.00046496011286342964</v>
+      </c>
+      <c r="G100">
+        <v>0.023243118178718609</v>
+      </c>
+      <c r="H100">
+        <v>0.74712284454130262</v>
+      </c>
+      <c r="I100">
+        <v>0.068817535105667266</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101">
+        <v>0.024464134921987318</v>
+      </c>
+      <c r="C101">
+        <v>0.0044481554077242663</v>
+      </c>
+      <c r="D101">
+        <v>0.057776545054914835</v>
+      </c>
+      <c r="E101">
+        <v>0.022745781139386353</v>
+      </c>
+      <c r="F101">
+        <v>6.7874110494655859e-05</v>
+      </c>
+      <c r="G101">
+        <v>0.0045371010143280188</v>
+      </c>
+      <c r="H101">
+        <v>0.82872465471681511</v>
+      </c>
+      <c r="I101">
+        <v>0.057235753634349427</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B102">
+        <v>0.07256032794019443</v>
+      </c>
+      <c r="C102">
+        <v>2.0422433840749254e-07</v>
+      </c>
+      <c r="D102">
+        <v>0.18835802052286893</v>
+      </c>
+      <c r="E102">
+        <v>0.014796839566091291</v>
+      </c>
+      <c r="F102">
+        <v>0.70780636113209083</v>
+      </c>
+      <c r="G102">
+        <v>1.2046341904142828e-05</v>
+      </c>
+      <c r="H102">
+        <v>7.3304120420301165e-07</v>
+      </c>
+      <c r="I102">
+        <v>0.016465467231307818</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103">
+        <v>0.001186553976355845</v>
+      </c>
+      <c r="C103">
+        <v>1.6238030179009263e-06</v>
+      </c>
+      <c r="D103">
+        <v>0.18708058078810222</v>
+      </c>
+      <c r="E103">
+        <v>5.8936230050840288e-05</v>
+      </c>
+      <c r="F103">
+        <v>0.77938461118459468</v>
+      </c>
+      <c r="G103">
+        <v>3.6586112334418842e-07</v>
+      </c>
+      <c r="H103">
+        <v>1.3082104893554075e-13</v>
+      </c>
+      <c r="I103">
+        <v>0.03228732815662437</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104">
+        <v>0.036670807851734981</v>
+      </c>
+      <c r="C104">
+        <v>0.03154674160026829</v>
+      </c>
+      <c r="D104">
+        <v>0.18469806661271351</v>
+      </c>
+      <c r="E104">
+        <v>0.12261642775682871</v>
+      </c>
+      <c r="F104">
+        <v>0.014123717336025042</v>
+      </c>
+      <c r="G104">
+        <v>0.005568320359635729</v>
+      </c>
+      <c r="H104">
+        <v>0.1511191042937661</v>
+      </c>
+      <c r="I104">
+        <v>0.4536568141890277</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K103"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="27" customWidth="true"/>
+    <col min="3" max="3" width="27.28515625" customWidth="true"/>
+    <col min="4" max="4" width="27.28515625" customWidth="true"/>
+    <col min="5" max="5" width="27.28515625" customWidth="true"/>
+    <col min="6" max="6" width="27.28515625" customWidth="true"/>
+    <col min="7" max="7" width="27.28515625" customWidth="true"/>
+    <col min="8" max="8" width="27.28515625" customWidth="true"/>
+    <col min="9" max="9" width="24.140625" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2">
+        <v>0.26070880913533817</v>
+      </c>
+      <c r="C2">
+        <v>0.016039734377437564</v>
+      </c>
+      <c r="D2">
+        <v>0.31117769606039192</v>
+      </c>
+      <c r="E2">
+        <v>0.2091471720718304</v>
+      </c>
+      <c r="F2">
+        <v>0.00027643092361269732</v>
+      </c>
+      <c r="G2">
+        <v>0.0029913575164453956</v>
+      </c>
+      <c r="H2">
+        <v>0.15886546732525408</v>
+      </c>
+      <c r="I2">
+        <v>0.040793332589689826</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3">
+        <v>0.29523714164073311</v>
+      </c>
+      <c r="C3">
+        <v>0.029469517387427216</v>
+      </c>
+      <c r="D3">
+        <v>0.32744555734064995</v>
+      </c>
+      <c r="E3">
+        <v>0.21079728317350682</v>
+      </c>
+      <c r="F3">
+        <v>0.00077568647289787596</v>
+      </c>
+      <c r="G3">
+        <v>0.0011418990904908488</v>
+      </c>
+      <c r="H3">
+        <v>0.057756500491446233</v>
+      </c>
+      <c r="I3">
+        <v>0.077376414402847829</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4">
+        <v>0.28344006684092454</v>
+      </c>
+      <c r="C4">
+        <v>0.028666078511934433</v>
+      </c>
+      <c r="D4">
+        <v>0.29178600029949792</v>
+      </c>
+      <c r="E4">
+        <v>0.2163744671410362</v>
+      </c>
+      <c r="F4">
+        <v>0.00029304908158902582</v>
+      </c>
+      <c r="G4">
+        <v>0.00034108468023675382</v>
+      </c>
+      <c r="H4">
+        <v>0.10522116509171033</v>
+      </c>
+      <c r="I4">
+        <v>0.073878088353070775</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5">
+        <v>0.35266462251137121</v>
+      </c>
+      <c r="C5">
+        <v>0.043906457267571537</v>
+      </c>
+      <c r="D5">
+        <v>0.27050027673627525</v>
+      </c>
+      <c r="E5">
+        <v>0.20361035998007848</v>
+      </c>
+      <c r="F5">
+        <v>0.00026961948359698019</v>
+      </c>
+      <c r="G5">
+        <v>0.0012192345806499734</v>
+      </c>
+      <c r="H5">
+        <v>0.062270996640715101</v>
+      </c>
+      <c r="I5">
+        <v>0.065558432799741301</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6">
+        <v>0.22277000325780305</v>
+      </c>
+      <c r="C6">
+        <v>0.010827706332749173</v>
+      </c>
+      <c r="D6">
+        <v>0.29850864514521691</v>
+      </c>
+      <c r="E6">
+        <v>0.17732947741104446</v>
+      </c>
+      <c r="F6">
+        <v>7.3554601036720442e-05</v>
+      </c>
+      <c r="G6">
+        <v>0.014025938899258693</v>
+      </c>
+      <c r="H6">
+        <v>0.22923292028848297</v>
+      </c>
+      <c r="I6">
+        <v>0.047231754064407709</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7">
+        <v>0.32527251102270793</v>
+      </c>
+      <c r="C7">
+        <v>0.041070890546223038</v>
+      </c>
+      <c r="D7">
+        <v>0.30207736019963705</v>
+      </c>
+      <c r="E7">
+        <v>0.21861960652272955</v>
+      </c>
+      <c r="F7">
+        <v>9.3334892236609761e-05</v>
+      </c>
+      <c r="G7">
+        <v>0.0021274044399888126</v>
+      </c>
+      <c r="H7">
+        <v>0.040384529319166931</v>
+      </c>
+      <c r="I7">
+        <v>0.070354363057310271</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8">
+        <v>0.31463030361975364</v>
+      </c>
+      <c r="C8">
+        <v>0.047556609279245973</v>
+      </c>
+      <c r="D8">
+        <v>0.24498292407884403</v>
+      </c>
+      <c r="E8">
+        <v>0.22526473098564542</v>
+      </c>
+      <c r="F8">
+        <v>0.00053112403296649824</v>
+      </c>
+      <c r="G8">
+        <v>0.013028661696375605</v>
+      </c>
+      <c r="H8">
+        <v>0.063372335602617597</v>
+      </c>
+      <c r="I8">
+        <v>0.09063331070455119</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9">
+        <v>0.20013806959561511</v>
+      </c>
+      <c r="C9">
+        <v>0.014091752750212787</v>
+      </c>
+      <c r="D9">
+        <v>0.19247210100841577</v>
+      </c>
+      <c r="E9">
+        <v>0.15344454018657333</v>
+      </c>
+      <c r="F9">
+        <v>1.0027158339771535e-05</v>
+      </c>
+      <c r="G9">
+        <v>0.13800114842465158</v>
+      </c>
+      <c r="H9">
+        <v>0.24760246866949126</v>
+      </c>
+      <c r="I9">
+        <v>0.054239892206700481</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10">
+        <v>0.1772869006996978</v>
+      </c>
+      <c r="C10">
+        <v>0.024473214983157715</v>
+      </c>
+      <c r="D10">
+        <v>0.16047709388992723</v>
+      </c>
+      <c r="E10">
+        <v>0.14854922926484357</v>
+      </c>
+      <c r="F10">
+        <v>9.0459276568045699e-06</v>
+      </c>
+      <c r="G10">
+        <v>0.29540024868779785</v>
+      </c>
+      <c r="H10">
+        <v>0.16003896413017749</v>
+      </c>
+      <c r="I10">
+        <v>0.033765302416741499</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11">
+        <v>0.31406445187391774</v>
+      </c>
+      <c r="C11">
+        <v>0.064607548157896322</v>
+      </c>
+      <c r="D11">
+        <v>0.25186978019275297</v>
+      </c>
+      <c r="E11">
+        <v>0.21098631026253273</v>
+      </c>
+      <c r="F11">
+        <v>3.9627605958686113e-05</v>
+      </c>
+      <c r="G11">
+        <v>0.023403417828198991</v>
+      </c>
+      <c r="H11">
+        <v>0.062541741441249382</v>
+      </c>
+      <c r="I11">
+        <v>0.072487122637493365</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12">
+        <v>0.2905219904155632</v>
+      </c>
+      <c r="C12">
+        <v>0.028851764541100618</v>
+      </c>
+      <c r="D12">
+        <v>0.2359462032441963</v>
+      </c>
+      <c r="E12">
+        <v>0.24227913050058086</v>
+      </c>
+      <c r="F12">
+        <v>0.00069619137095819979</v>
+      </c>
+      <c r="G12">
+        <v>0.021761112662497504</v>
+      </c>
+      <c r="H12">
+        <v>0.00029361010424967327</v>
+      </c>
+      <c r="I12">
+        <v>0.17964999716085353</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13">
+        <v>0.049672881662198333</v>
+      </c>
+      <c r="C13">
+        <v>0.048813738466663738</v>
+      </c>
+      <c r="D13">
+        <v>0.0599353531910276</v>
+      </c>
+      <c r="E13">
+        <v>0.097586113110189263</v>
+      </c>
+      <c r="F13">
+        <v>1.1876341170227668e-06</v>
+      </c>
+      <c r="G13">
+        <v>0.690699965149976</v>
+      </c>
+      <c r="H13">
+        <v>0.012107009594580984</v>
+      </c>
+      <c r="I13">
+        <v>0.041183751191247002</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14">
+        <v>0.095166894653629902</v>
+      </c>
+      <c r="C14">
+        <v>0.052126406098693297</v>
+      </c>
+      <c r="D14">
+        <v>0.073374203879272223</v>
+      </c>
+      <c r="E14">
+        <v>0.086041137629183875</v>
+      </c>
+      <c r="F14">
+        <v>4.0570992082777536e-07</v>
+      </c>
+      <c r="G14">
+        <v>0.62576931495957788</v>
+      </c>
+      <c r="H14">
+        <v>0.014875086566591136</v>
+      </c>
+      <c r="I14">
+        <v>0.052646550503130815</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15">
+        <v>0.025207115228750913</v>
+      </c>
+      <c r="C15">
+        <v>0.017354155217380336</v>
+      </c>
+      <c r="D15">
+        <v>0.039756274416768766</v>
+      </c>
+      <c r="E15">
+        <v>0.03234670954688277</v>
+      </c>
+      <c r="F15">
+        <v>2.4971458857497623e-07</v>
+      </c>
+      <c r="G15">
+        <v>0.84263512953912867</v>
+      </c>
+      <c r="H15">
+        <v>0.0016087602393777519</v>
+      </c>
+      <c r="I15">
+        <v>0.04109160609712232</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16">
+        <v>0.051290187311136833</v>
+      </c>
+      <c r="C16">
+        <v>0.78901784632198035</v>
+      </c>
+      <c r="D16">
+        <v>0.046926504163236078</v>
+      </c>
+      <c r="E16">
+        <v>0.04948930260804546</v>
+      </c>
+      <c r="F16">
+        <v>0.00010185463277564487</v>
+      </c>
+      <c r="G16">
+        <v>0.019202946301201673</v>
+      </c>
+      <c r="H16">
+        <v>0.00080510878711415642</v>
+      </c>
+      <c r="I16">
+        <v>0.043166249874509864</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17">
+        <v>0.08003010638794851</v>
+      </c>
+      <c r="C17">
+        <v>0.80086473858354201</v>
+      </c>
+      <c r="D17">
+        <v>0.032034420215278893</v>
+      </c>
+      <c r="E17">
+        <v>0.051812756405613308</v>
+      </c>
+      <c r="F17">
+        <v>5.4213817654121443e-05</v>
+      </c>
+      <c r="G17">
+        <v>0.001590701378483638</v>
+      </c>
+      <c r="H17">
+        <v>0.0067626426727746096</v>
+      </c>
+      <c r="I17">
+        <v>0.026850420538704897</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18">
+        <v>0.084320448615023649</v>
+      </c>
+      <c r="C18">
+        <v>0.66083621416467153</v>
+      </c>
+      <c r="D18">
+        <v>0.039283281321019624</v>
+      </c>
+      <c r="E18">
+        <v>0.064413078688339218</v>
+      </c>
+      <c r="F18">
+        <v>0.00013257250555720213</v>
+      </c>
+      <c r="G18">
+        <v>0.077528160390003806</v>
+      </c>
+      <c r="H18">
+        <v>0.0006224114943517451</v>
+      </c>
+      <c r="I18">
+        <v>0.072863832821033106</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19">
+        <v>0.092366887589275415</v>
+      </c>
+      <c r="C19">
+        <v>0.77529337370089335</v>
+      </c>
+      <c r="D19">
+        <v>0.029929209935289289</v>
+      </c>
+      <c r="E19">
+        <v>0.044714629254671304</v>
+      </c>
+      <c r="F19">
+        <v>3.1133538821682234e-05</v>
+      </c>
+      <c r="G19">
+        <v>0.024555473656315566</v>
+      </c>
+      <c r="H19">
+        <v>0.014779616818124086</v>
+      </c>
+      <c r="I19">
+        <v>0.018329675506609504</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20">
+        <v>0.069737038778684035</v>
+      </c>
+      <c r="C20">
+        <v>0.81207644614329044</v>
+      </c>
+      <c r="D20">
+        <v>0.019487227433512038</v>
+      </c>
+      <c r="E20">
+        <v>0.044768533113149753</v>
+      </c>
+      <c r="F20">
+        <v>0.00024542241477495486</v>
+      </c>
+      <c r="G20">
+        <v>0.0053323049010590541</v>
+      </c>
+      <c r="H20">
+        <v>0.00025634909465395471</v>
+      </c>
+      <c r="I20">
+        <v>0.048096678120875855</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21">
+        <v>0.10378982837992498</v>
+      </c>
+      <c r="C21">
+        <v>0.75710516727586685</v>
+      </c>
+      <c r="D21">
+        <v>0.021738100341885752</v>
+      </c>
+      <c r="E21">
+        <v>0.05244903476256136</v>
+      </c>
+      <c r="F21">
+        <v>2.3105634655946201e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.030330560035864141</v>
+      </c>
+      <c r="H21">
+        <v>0.0015608297186341536</v>
+      </c>
+      <c r="I21">
+        <v>0.033003373850606615</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22">
+        <v>0.1797202158619125</v>
+      </c>
+      <c r="C22">
+        <v>0.43246306070018481</v>
+      </c>
+      <c r="D22">
+        <v>0.11317551699762766</v>
+      </c>
+      <c r="E22">
+        <v>0.12032362761541938</v>
+      </c>
+      <c r="F22">
+        <v>4.3767764145797314e-05</v>
+      </c>
+      <c r="G22">
+        <v>0.06137831205606472</v>
+      </c>
+      <c r="H22">
+        <v>0.057482770767293058</v>
+      </c>
+      <c r="I22">
+        <v>0.035412728237352059</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23">
+        <v>0.1004106757586395</v>
+      </c>
+      <c r="C23">
+        <v>0.59424588816740664</v>
+      </c>
+      <c r="D23">
+        <v>0.044595745038105712</v>
+      </c>
+      <c r="E23">
+        <v>0.063628851632142588</v>
+      </c>
+      <c r="F23">
+        <v>2.0937827666897054e-05</v>
+      </c>
+      <c r="G23">
+        <v>0.16145506696519268</v>
+      </c>
+      <c r="H23">
+        <v>0.0075531757761700229</v>
+      </c>
+      <c r="I23">
+        <v>0.028089658834676082</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24">
+        <v>0.11601213344117471</v>
+      </c>
+      <c r="C24">
+        <v>0.36262236989957508</v>
+      </c>
+      <c r="D24">
+        <v>0.070296051393402531</v>
+      </c>
+      <c r="E24">
+        <v>0.071180940589786384</v>
+      </c>
+      <c r="F24">
+        <v>1.4487197219332732e-05</v>
+      </c>
+      <c r="G24">
+        <v>0.29160386488400664</v>
+      </c>
+      <c r="H24">
+        <v>0.068734764379955474</v>
+      </c>
+      <c r="I24">
+        <v>0.019535388214879951</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25">
+        <v>0.11520551737321043</v>
+      </c>
+      <c r="C25">
+        <v>0.13550982493794439</v>
+      </c>
+      <c r="D25">
+        <v>0.089263779776109067</v>
+      </c>
+      <c r="E25">
+        <v>0.089406104950406629</v>
+      </c>
+      <c r="F25">
+        <v>5.5787118702741284e-06</v>
+      </c>
+      <c r="G25">
+        <v>0.43071883943601891</v>
+      </c>
+      <c r="H25">
+        <v>0.11098562514240144</v>
+      </c>
+      <c r="I25">
+        <v>0.028904729672038804</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26">
+        <v>0.1742568736419513</v>
+      </c>
+      <c r="C26">
+        <v>0.062168752075052507</v>
+      </c>
+      <c r="D26">
+        <v>0.15523604070148056</v>
+      </c>
+      <c r="E26">
+        <v>0.11825413049708768</v>
+      </c>
+      <c r="F26">
+        <v>3.0735680082460612e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.40048978435280308</v>
+      </c>
+      <c r="H26">
+        <v>0.052897509981836281</v>
+      </c>
+      <c r="I26">
+        <v>0.036666173069706154</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B27">
+        <v>0.0099080014932707294</v>
+      </c>
+      <c r="C27">
+        <v>5.3195592068413827e-06</v>
+      </c>
+      <c r="D27">
+        <v>0.08508263334552317</v>
+      </c>
+      <c r="E27">
+        <v>0.015753905406679113</v>
+      </c>
+      <c r="F27">
+        <v>3.1151598323674779e-07</v>
+      </c>
+      <c r="G27">
+        <v>0.83470599081858921</v>
+      </c>
+      <c r="H27">
+        <v>5.3961944028035863e-08</v>
+      </c>
+      <c r="I27">
+        <v>0.054543783898803745</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28">
+        <v>0.056704102454109062</v>
+      </c>
+      <c r="C28">
+        <v>0.84673106327077552</v>
+      </c>
+      <c r="D28">
+        <v>0.014002993782047387</v>
+      </c>
+      <c r="E28">
+        <v>0.04488017830017503</v>
+      </c>
+      <c r="F28">
+        <v>9.6493026122209009e-05</v>
+      </c>
+      <c r="G28">
+        <v>0.0016752748551855619</v>
+      </c>
+      <c r="H28">
+        <v>0.00095452580907221072</v>
+      </c>
+      <c r="I28">
+        <v>0.034955368502512858</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29">
+        <v>0.37554440638593178</v>
+      </c>
+      <c r="C29">
+        <v>0.017696389710369138</v>
+      </c>
+      <c r="D29">
+        <v>0.26476846510873953</v>
+      </c>
+      <c r="E29">
+        <v>0.21719695931348865</v>
+      </c>
+      <c r="F29">
+        <v>0.00042383929229592191</v>
+      </c>
+      <c r="G29">
+        <v>0.0015189657902230373</v>
+      </c>
+      <c r="H29">
+        <v>0.08198649881747061</v>
+      </c>
+      <c r="I29">
+        <v>0.040864475581481367</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30">
+        <v>0.31734447778843394</v>
+      </c>
+      <c r="C30">
+        <v>0.0036060066191778779</v>
+      </c>
+      <c r="D30">
+        <v>0.27440608503506675</v>
+      </c>
+      <c r="E30">
+        <v>0.25497269216422519</v>
+      </c>
+      <c r="F30">
+        <v>8.2885701017923035e-05</v>
+      </c>
+      <c r="G30">
+        <v>0.00072665613448690306</v>
+      </c>
+      <c r="H30">
+        <v>0.10731345490576841</v>
+      </c>
+      <c r="I30">
+        <v>0.041547741651823109</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31">
+        <v>0.27437852814431729</v>
+      </c>
+      <c r="C31">
+        <v>0.0051593924472605503</v>
+      </c>
+      <c r="D31">
+        <v>0.22700353312878574</v>
+      </c>
+      <c r="E31">
+        <v>0.23254275606713468</v>
+      </c>
+      <c r="F31">
+        <v>0.00015464762090189199</v>
+      </c>
+      <c r="G31">
+        <v>0.0015251156598236561</v>
+      </c>
+      <c r="H31">
+        <v>0.20234069516179018</v>
+      </c>
+      <c r="I31">
+        <v>0.056895331769986061</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32">
+        <v>0.2669235322792104</v>
+      </c>
+      <c r="C32">
+        <v>0.013838451523949765</v>
+      </c>
+      <c r="D32">
+        <v>0.28648991618056502</v>
+      </c>
+      <c r="E32">
+        <v>0.25080308229912351</v>
+      </c>
+      <c r="F32">
+        <v>0.0012518167353027909</v>
+      </c>
+      <c r="G32">
+        <v>0.0038871513112902684</v>
+      </c>
+      <c r="H32">
+        <v>0.042231828161857062</v>
+      </c>
+      <c r="I32">
+        <v>0.13457422150870119</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33">
+        <v>0.28199385750503037</v>
+      </c>
+      <c r="C33">
+        <v>0.015212431824165406</v>
+      </c>
+      <c r="D33">
+        <v>0.2325122018868129</v>
+      </c>
+      <c r="E33">
+        <v>0.20187419168320037</v>
+      </c>
+      <c r="F33">
+        <v>0.0001406170928677844</v>
+      </c>
+      <c r="G33">
+        <v>0.0633101815559277</v>
+      </c>
+      <c r="H33">
+        <v>0.10001935181902653</v>
+      </c>
+      <c r="I33">
+        <v>0.10493716663296915</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34">
+        <v>0.2712894626364265</v>
+      </c>
+      <c r="C34">
+        <v>0.013041478535263433</v>
+      </c>
+      <c r="D34">
+        <v>0.25443121599714991</v>
+      </c>
+      <c r="E34">
+        <v>0.18029596635102069</v>
+      </c>
+      <c r="F34">
+        <v>2.1782688110632831e-05</v>
+      </c>
+      <c r="G34">
+        <v>0.0036988058879184852</v>
+      </c>
+      <c r="H34">
+        <v>0.23038178742000082</v>
+      </c>
+      <c r="I34">
+        <v>0.046839500484109717</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35">
+        <v>0.29787925790138609</v>
+      </c>
+      <c r="C35">
+        <v>0.040951025178250833</v>
+      </c>
+      <c r="D35">
+        <v>0.22459784782562803</v>
+      </c>
+      <c r="E35">
+        <v>0.21218949482852695</v>
+      </c>
+      <c r="F35">
+        <v>0.00023669967512642798</v>
+      </c>
+      <c r="G35">
+        <v>0.019475906691903026</v>
+      </c>
+      <c r="H35">
+        <v>0.13395473533302099</v>
+      </c>
+      <c r="I35">
+        <v>0.070715032566157618</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36">
+        <v>0.12567243786234292</v>
+      </c>
+      <c r="C36">
+        <v>0.089434059883952852</v>
+      </c>
+      <c r="D36">
+        <v>0.11274586210210792</v>
+      </c>
+      <c r="E36">
+        <v>0.14140062936929346</v>
+      </c>
+      <c r="F36">
+        <v>3.9745261373965944e-06</v>
+      </c>
+      <c r="G36">
+        <v>0.41875532693548045</v>
+      </c>
+      <c r="H36">
+        <v>0.0087064927774486954</v>
+      </c>
+      <c r="I36">
+        <v>0.10328121654323634</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B37">
+        <v>0.27320169043228631</v>
+      </c>
+      <c r="C37">
+        <v>0.0097947241115252121</v>
+      </c>
+      <c r="D37">
+        <v>0.33290958242425922</v>
+      </c>
+      <c r="E37">
+        <v>0.21871571208114804</v>
+      </c>
+      <c r="F37">
+        <v>0.00044255300180165078</v>
+      </c>
+      <c r="G37">
+        <v>0.00075351292266365524</v>
+      </c>
+      <c r="H37">
+        <v>0.10910660108284198</v>
+      </c>
+      <c r="I37">
+        <v>0.055075623943473963</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B38">
+        <v>0.26776712545845677</v>
+      </c>
+      <c r="C38">
+        <v>0.0059109560064327616</v>
+      </c>
+      <c r="D38">
+        <v>0.23439913773183541</v>
+      </c>
+      <c r="E38">
+        <v>0.23471493561065102</v>
+      </c>
+      <c r="F38">
+        <v>0.00012972804098374368</v>
+      </c>
+      <c r="G38">
+        <v>0.0048759231692509101</v>
+      </c>
+      <c r="H38">
+        <v>0.18816959348692897</v>
+      </c>
+      <c r="I38">
+        <v>0.064032600495460515</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39">
+        <v>0.30771216722466621</v>
+      </c>
+      <c r="C39">
+        <v>0.022322642972585443</v>
+      </c>
+      <c r="D39">
+        <v>0.19161311767833056</v>
+      </c>
+      <c r="E39">
+        <v>0.22864946909430103</v>
+      </c>
+      <c r="F39">
+        <v>0.00022337373253170925</v>
+      </c>
+      <c r="G39">
+        <v>0.078225276097800042</v>
+      </c>
+      <c r="H39">
+        <v>0.048593406138276771</v>
+      </c>
+      <c r="I39">
+        <v>0.12266054706150821</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B40">
+        <v>0.2810117123146057</v>
+      </c>
+      <c r="C40">
+        <v>0.01724007678632003</v>
+      </c>
+      <c r="D40">
+        <v>0.30456984601566167</v>
+      </c>
+      <c r="E40">
+        <v>0.25369220303535017</v>
+      </c>
+      <c r="F40">
+        <v>0.00049114552159818003</v>
+      </c>
+      <c r="G40">
+        <v>0.00075833420710684041</v>
+      </c>
+      <c r="H40">
+        <v>0.025112198369549771</v>
+      </c>
+      <c r="I40">
+        <v>0.1171244837498077</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B41">
+        <v>0.28494848981142162</v>
+      </c>
+      <c r="C41">
+        <v>0.020348529489705079</v>
+      </c>
+      <c r="D41">
+        <v>0.28931684656270706</v>
+      </c>
+      <c r="E41">
+        <v>0.23877477273782999</v>
+      </c>
+      <c r="F41">
+        <v>0.0011324974568464011</v>
+      </c>
+      <c r="G41">
+        <v>0.00058180927495503538</v>
+      </c>
+      <c r="H41">
+        <v>0.10434121067744884</v>
+      </c>
+      <c r="I41">
+        <v>0.060555843989085957</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42">
+        <v>0.25081291270844525</v>
+      </c>
+      <c r="C42">
+        <v>0.050743696565781329</v>
+      </c>
+      <c r="D42">
+        <v>0.27897646455159097</v>
+      </c>
+      <c r="E42">
+        <v>0.21060608191646887</v>
+      </c>
+      <c r="F42">
+        <v>4.6516410056867706e-05</v>
+      </c>
+      <c r="G42">
+        <v>0.00635828551905788</v>
+      </c>
+      <c r="H42">
+        <v>0.14239703611877602</v>
+      </c>
+      <c r="I42">
+        <v>0.060059006209822796</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43">
+        <v>0.25580362087766345</v>
+      </c>
+      <c r="C43">
+        <v>0.015693105645279593</v>
+      </c>
+      <c r="D43">
+        <v>0.22911794861763057</v>
+      </c>
+      <c r="E43">
+        <v>0.15211110145104847</v>
+      </c>
+      <c r="F43">
+        <v>2.5178234932950899e-05</v>
+      </c>
+      <c r="G43">
+        <v>0.07730953566324511</v>
+      </c>
+      <c r="H43">
+        <v>0.21877606742382996</v>
+      </c>
+      <c r="I43">
+        <v>0.051163442086369984</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44">
+        <v>0.32399385358437433</v>
+      </c>
+      <c r="C44">
+        <v>0.025099976577182225</v>
+      </c>
+      <c r="D44">
+        <v>0.27417795877191181</v>
+      </c>
+      <c r="E44">
+        <v>0.25273515070562613</v>
+      </c>
+      <c r="F44">
+        <v>0.0018802542995717485</v>
+      </c>
+      <c r="G44">
+        <v>0.00035159442153226585</v>
+      </c>
+      <c r="H44">
+        <v>0.055309091819910373</v>
+      </c>
+      <c r="I44">
+        <v>0.066452119819891048</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45">
+        <v>0.056246653165996453</v>
+      </c>
+      <c r="C45">
+        <v>0.0014432619267907422</v>
+      </c>
+      <c r="D45">
+        <v>0.055621934394311227</v>
+      </c>
+      <c r="E45">
+        <v>0.039068439078101695</v>
+      </c>
+      <c r="F45">
+        <v>0.81488754026851895</v>
+      </c>
+      <c r="G45">
+        <v>2.5284504278584445e-06</v>
+      </c>
+      <c r="H45">
+        <v>5.4024341821365243e-05</v>
+      </c>
+      <c r="I45">
+        <v>0.032675618374031774</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46">
+        <v>0.065783882957218945</v>
+      </c>
+      <c r="C46">
+        <v>3.7987831518255691e-06</v>
+      </c>
+      <c r="D46">
+        <v>0.032380321235854818</v>
+      </c>
+      <c r="E46">
+        <v>0.036718612137615549</v>
+      </c>
+      <c r="F46">
+        <v>0.83208024663894697</v>
+      </c>
+      <c r="G46">
+        <v>8.0966687852602554e-07</v>
+      </c>
+      <c r="H46">
+        <v>4.3742377910945699e-08</v>
+      </c>
+      <c r="I46">
+        <v>0.03303228483795545</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B47">
+        <v>0.054783157443608295</v>
+      </c>
+      <c r="C47">
+        <v>0.00060377059594464736</v>
+      </c>
+      <c r="D47">
+        <v>0.048589813109159684</v>
+      </c>
+      <c r="E47">
+        <v>0.049101900688971127</v>
+      </c>
+      <c r="F47">
+        <v>0.81623737567645938</v>
+      </c>
+      <c r="G47">
+        <v>3.5859244445768603e-06</v>
+      </c>
+      <c r="H47">
+        <v>2.6294906411267956e-06</v>
+      </c>
+      <c r="I47">
+        <v>0.030677767070771064</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48">
+        <v>0.060932660071062378</v>
+      </c>
+      <c r="C48">
+        <v>0.0035085607368376065</v>
+      </c>
+      <c r="D48">
+        <v>0.055831729521038917</v>
+      </c>
+      <c r="E48">
+        <v>0.042188240562047473</v>
+      </c>
+      <c r="F48">
+        <v>0.81675343230206854</v>
+      </c>
+      <c r="G48">
+        <v>1.4953571992190306e-05</v>
+      </c>
+      <c r="H48">
+        <v>8.9059445903064434e-05</v>
+      </c>
+      <c r="I48">
+        <v>0.020681363789049761</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B49">
+        <v>0.065352246101871875</v>
+      </c>
+      <c r="C49">
+        <v>0.0024043754010152881</v>
+      </c>
+      <c r="D49">
+        <v>0.050966736495438147</v>
+      </c>
+      <c r="E49">
+        <v>0.040112672654536712</v>
+      </c>
+      <c r="F49">
+        <v>0.81738816819502669</v>
+      </c>
+      <c r="G49">
+        <v>2.0640979332852412e-05</v>
+      </c>
+      <c r="H49">
+        <v>0.00012606762352746504</v>
+      </c>
+      <c r="I49">
+        <v>0.023629092549251093</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B50">
+        <v>0.059112221088997378</v>
+      </c>
+      <c r="C50">
+        <v>3.2670412633744429e-06</v>
+      </c>
+      <c r="D50">
+        <v>0.071925334023207083</v>
+      </c>
+      <c r="E50">
+        <v>0.029170210953664743</v>
+      </c>
+      <c r="F50">
+        <v>0.80656634337607225</v>
+      </c>
+      <c r="G50">
+        <v>4.7713374747281323e-07</v>
+      </c>
+      <c r="H50">
+        <v>1.2077800865672346e-10</v>
+      </c>
+      <c r="I50">
+        <v>0.033222146262269693</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B51">
+        <v>0.069971723099557501</v>
+      </c>
+      <c r="C51">
+        <v>0.004792696863458892</v>
+      </c>
+      <c r="D51">
+        <v>0.045145017605767543</v>
+      </c>
+      <c r="E51">
+        <v>0.035566931167151955</v>
+      </c>
+      <c r="F51">
+        <v>0.82152875531787906</v>
+      </c>
+      <c r="G51">
+        <v>1.1137871228026092e-05</v>
+      </c>
+      <c r="H51">
+        <v>0.00049588639423105954</v>
+      </c>
+      <c r="I51">
+        <v>0.022487851680725861</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B52">
+        <v>0.057824230499603363</v>
+      </c>
+      <c r="C52">
+        <v>0.0044852201009857257</v>
+      </c>
+      <c r="D52">
+        <v>0.056433418179112703</v>
+      </c>
+      <c r="E52">
+        <v>0.040509368790229337</v>
+      </c>
+      <c r="F52">
+        <v>0.81836201911998074</v>
+      </c>
+      <c r="G52">
+        <v>1.5312987398929115e-05</v>
+      </c>
+      <c r="H52">
+        <v>2.9731897450262848e-05</v>
+      </c>
+      <c r="I52">
+        <v>0.022340698425238868</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53">
+        <v>0.0605128410554042</v>
+      </c>
+      <c r="C53">
+        <v>0.0027538603614262361</v>
+      </c>
+      <c r="D53">
+        <v>0.05250958606437818</v>
+      </c>
+      <c r="E53">
+        <v>0.043127739515817269</v>
+      </c>
+      <c r="F53">
+        <v>0.81868368798071312</v>
+      </c>
+      <c r="G53">
+        <v>1.8006481348710063e-05</v>
+      </c>
+      <c r="H53">
+        <v>7.7433250644684656e-05</v>
+      </c>
+      <c r="I53">
+        <v>0.022316845290267652</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B54">
+        <v>0.060386177204914009</v>
+      </c>
+      <c r="C54">
+        <v>0.00031376437430528101</v>
+      </c>
+      <c r="D54">
+        <v>0.036501389900742372</v>
+      </c>
+      <c r="E54">
+        <v>0.037117110810904616</v>
+      </c>
+      <c r="F54">
+        <v>0.83170283047870708</v>
+      </c>
+      <c r="G54">
+        <v>9.9338908059869525e-07</v>
+      </c>
+      <c r="H54">
+        <v>6.8385017112002672e-06</v>
+      </c>
+      <c r="I54">
+        <v>0.033970895339634842</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B55">
+        <v>0.059684804659813892</v>
+      </c>
+      <c r="C55">
+        <v>0.0009326732003911959</v>
+      </c>
+      <c r="D55">
+        <v>0.038854105818155529</v>
+      </c>
+      <c r="E55">
+        <v>0.042308025198710381</v>
+      </c>
+      <c r="F55">
+        <v>0.84189261222661793</v>
+      </c>
+      <c r="G55">
+        <v>2.0080748562462417e-05</v>
+      </c>
+      <c r="H55">
+        <v>5.6866359983804614e-05</v>
+      </c>
+      <c r="I55">
+        <v>0.016250831787764798</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B56">
+        <v>0.095747556396691538</v>
+      </c>
+      <c r="C56">
+        <v>0.0063681913214385473</v>
+      </c>
+      <c r="D56">
+        <v>0.099565325921863707</v>
+      </c>
+      <c r="E56">
+        <v>0.095172538145758295</v>
+      </c>
+      <c r="F56">
+        <v>0.64473985542279555</v>
+      </c>
+      <c r="G56">
+        <v>0.0015804808272189498</v>
+      </c>
+      <c r="H56">
+        <v>1.2774335046782126e-05</v>
+      </c>
+      <c r="I56">
+        <v>0.056813277629186691</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57">
+        <v>0.026621982168232014</v>
+      </c>
+      <c r="C57">
+        <v>0.00036777608462714725</v>
+      </c>
+      <c r="D57">
+        <v>0.036963694360256712</v>
+      </c>
+      <c r="E57">
+        <v>0.035829106955368784</v>
+      </c>
+      <c r="F57">
+        <v>0.85779381085953343</v>
+      </c>
+      <c r="G57">
+        <v>5.3260662150689634e-05</v>
+      </c>
+      <c r="H57">
+        <v>2.3346444573127339e-08</v>
+      </c>
+      <c r="I57">
+        <v>0.042370345563386543</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B58">
+        <v>0.042757185533397357</v>
+      </c>
+      <c r="C58">
+        <v>0.00026698042803545408</v>
+      </c>
+      <c r="D58">
+        <v>0.043873835096463018</v>
+      </c>
+      <c r="E58">
+        <v>0.054661994777247633</v>
+      </c>
+      <c r="F58">
+        <v>0.83244468487478473</v>
+      </c>
+      <c r="G58">
+        <v>0.00021009153870462768</v>
+      </c>
+      <c r="H58">
+        <v>7.8364887164272779e-07</v>
+      </c>
+      <c r="I58">
+        <v>0.025784444102495484</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B59">
+        <v>0.015648468686500355</v>
+      </c>
+      <c r="C59">
+        <v>0.00053145062466537578</v>
+      </c>
+      <c r="D59">
+        <v>0.016604947842410858</v>
+      </c>
+      <c r="E59">
+        <v>0.063964305254279874</v>
+      </c>
+      <c r="F59">
+        <v>0.87620861854153032</v>
+      </c>
+      <c r="G59">
+        <v>0.00152473849578463</v>
+      </c>
+      <c r="H59">
+        <v>2.4657014188205116e-09</v>
+      </c>
+      <c r="I59">
+        <v>0.025517468089127093</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B60">
+        <v>0.06014932277322229</v>
+      </c>
+      <c r="C60">
+        <v>0.003427208189404321</v>
+      </c>
+      <c r="D60">
+        <v>0.055548987443953056</v>
+      </c>
+      <c r="E60">
+        <v>0.036449318868734974</v>
+      </c>
+      <c r="F60">
+        <v>0.81346015153552698</v>
+      </c>
+      <c r="G60">
+        <v>1.9609858480038977e-05</v>
+      </c>
+      <c r="H60">
+        <v>0.0010613721410235024</v>
+      </c>
+      <c r="I60">
+        <v>0.029884029189654864</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61">
+        <v>0.012052854199558033</v>
+      </c>
+      <c r="C61">
+        <v>0.0050126046658996318</v>
+      </c>
+      <c r="D61">
+        <v>0.021764208006175085</v>
+      </c>
+      <c r="E61">
+        <v>0.04936293859128868</v>
+      </c>
+      <c r="F61">
+        <v>9.8981852019292656e-08</v>
+      </c>
+      <c r="G61">
+        <v>0.88637072698109132</v>
+      </c>
+      <c r="H61">
+        <v>0.0083237769112231227</v>
+      </c>
+      <c r="I61">
+        <v>0.017112791662912061</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B62">
+        <v>0.040180083167381558</v>
+      </c>
+      <c r="C62">
+        <v>0.0012105106405955884</v>
+      </c>
+      <c r="D62">
+        <v>0.039534414700131915</v>
+      </c>
+      <c r="E62">
+        <v>0.044890379377789669</v>
+      </c>
+      <c r="F62">
+        <v>1.189456849550862e-05</v>
+      </c>
+      <c r="G62">
+        <v>0.83699302977931567</v>
+      </c>
+      <c r="H62">
+        <v>0.016714815082113806</v>
+      </c>
+      <c r="I62">
+        <v>0.020464872684176197</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B63">
+        <v>0.099363886774174917</v>
+      </c>
+      <c r="C63">
+        <v>0.011648437067441416</v>
+      </c>
+      <c r="D63">
+        <v>0.080403441620805427</v>
+      </c>
+      <c r="E63">
+        <v>0.10570451934023457</v>
+      </c>
+      <c r="F63">
+        <v>1.3309098916789902e-05</v>
+      </c>
+      <c r="G63">
+        <v>0.50241200040611655</v>
+      </c>
+      <c r="H63">
+        <v>0.17945127335026761</v>
+      </c>
+      <c r="I63">
+        <v>0.021003132342042836</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B64">
+        <v>0.036478639777360072</v>
+      </c>
+      <c r="C64">
+        <v>0.001336556769870631</v>
+      </c>
+      <c r="D64">
+        <v>0.034799579170440367</v>
+      </c>
+      <c r="E64">
+        <v>0.033670731695500236</v>
+      </c>
+      <c r="F64">
+        <v>3.8764851512367153e-06</v>
+      </c>
+      <c r="G64">
+        <v>0.86320429238989183</v>
+      </c>
+      <c r="H64">
+        <v>0.0031157377635774603</v>
+      </c>
+      <c r="I64">
+        <v>0.02739058594820816</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65">
+        <v>0.048995200734377679</v>
+      </c>
+      <c r="C65">
+        <v>0.0061144509520265032</v>
+      </c>
+      <c r="D65">
+        <v>0.03836125966182316</v>
+      </c>
+      <c r="E65">
+        <v>0.040165580948947316</v>
+      </c>
+      <c r="F65">
+        <v>1.7787198017259161e-06</v>
+      </c>
+      <c r="G65">
+        <v>0.81909891215135944</v>
+      </c>
+      <c r="H65">
+        <v>0.033460213579534083</v>
+      </c>
+      <c r="I65">
+        <v>0.013802603252130074</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66">
+        <v>0.050852327974189392</v>
+      </c>
+      <c r="C66">
+        <v>0.010725720135678716</v>
+      </c>
+      <c r="D66">
+        <v>0.041690178759343208</v>
+      </c>
+      <c r="E66">
+        <v>0.041284529808605586</v>
+      </c>
+      <c r="F66">
+        <v>3.9009294760046587e-06</v>
+      </c>
+      <c r="G66">
+        <v>0.8128635360387273</v>
+      </c>
+      <c r="H66">
+        <v>0.020247646589299305</v>
+      </c>
+      <c r="I66">
+        <v>0.022332159764680445</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B67">
+        <v>0.037793995044573016</v>
+      </c>
+      <c r="C67">
+        <v>0.001348361766327604</v>
+      </c>
+      <c r="D67">
+        <v>0.035944876299586356</v>
+      </c>
+      <c r="E67">
+        <v>0.041304376856373538</v>
+      </c>
+      <c r="F67">
+        <v>8.6623264537109118e-07</v>
+      </c>
+      <c r="G67">
+        <v>0.85217403815711223</v>
+      </c>
+      <c r="H67">
+        <v>0.0090423432351688458</v>
+      </c>
+      <c r="I67">
+        <v>0.022391142408212911</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B68">
+        <v>0.026567505133173692</v>
+      </c>
+      <c r="C68">
+        <v>0.0035267258525448642</v>
+      </c>
+      <c r="D68">
+        <v>0.037236087764014311</v>
+      </c>
+      <c r="E68">
+        <v>0.035220377163119196</v>
+      </c>
+      <c r="F68">
+        <v>2.0546202357313211e-06</v>
+      </c>
+      <c r="G68">
+        <v>0.87134892553491028</v>
+      </c>
+      <c r="H68">
+        <v>0.0053296728323150881</v>
+      </c>
+      <c r="I68">
+        <v>0.020768651099686834</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B69">
+        <v>0.058135447298794732</v>
+      </c>
+      <c r="C69">
+        <v>0.018755300273868774</v>
+      </c>
+      <c r="D69">
+        <v>0.048283049215761722</v>
+      </c>
+      <c r="E69">
+        <v>0.042282103980879449</v>
+      </c>
+      <c r="F69">
+        <v>1.9275085043739368e-06</v>
+      </c>
+      <c r="G69">
+        <v>0.75554113297981418</v>
+      </c>
+      <c r="H69">
+        <v>0.064705760817969818</v>
+      </c>
+      <c r="I69">
+        <v>0.012295277924407074</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B70">
+        <v>0.034508753308554151</v>
+      </c>
+      <c r="C70">
+        <v>0.0052706132691386987</v>
+      </c>
+      <c r="D70">
+        <v>0.037109429579766463</v>
+      </c>
+      <c r="E70">
+        <v>0.037759331360986942</v>
+      </c>
+      <c r="F70">
+        <v>2.4178497457801786e-06</v>
+      </c>
+      <c r="G70">
+        <v>0.84084969297534717</v>
+      </c>
+      <c r="H70">
+        <v>0.0237760333720042</v>
+      </c>
+      <c r="I70">
+        <v>0.020723728284456632</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B71">
+        <v>0.0184418429220021</v>
+      </c>
+      <c r="C71">
+        <v>0.00050615792803280688</v>
+      </c>
+      <c r="D71">
+        <v>0.029869997784022682</v>
+      </c>
+      <c r="E71">
+        <v>0.035407367860408219</v>
+      </c>
+      <c r="F71">
+        <v>1.7699624116266268e-06</v>
+      </c>
+      <c r="G71">
+        <v>0.85932743385697863</v>
+      </c>
+      <c r="H71">
+        <v>0.022642006117525135</v>
+      </c>
+      <c r="I71">
+        <v>0.033803423568618741</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72">
+        <v>0.056741663890300227</v>
+      </c>
+      <c r="C72">
+        <v>0.031268949724496155</v>
+      </c>
+      <c r="D72">
+        <v>0.050438103812160087</v>
+      </c>
+      <c r="E72">
+        <v>0.045456862098226462</v>
+      </c>
+      <c r="F72">
+        <v>1.6552695090033287e-06</v>
+      </c>
+      <c r="G72">
+        <v>0.75174483946862714</v>
+      </c>
+      <c r="H72">
+        <v>0.051513283315688184</v>
+      </c>
+      <c r="I72">
+        <v>0.012834642420992777</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B73">
+        <v>0.01357362513190547</v>
+      </c>
+      <c r="C73">
+        <v>0.00066117172011167233</v>
+      </c>
+      <c r="D73">
+        <v>0.025894409065634536</v>
+      </c>
+      <c r="E73">
+        <v>0.023200325916393105</v>
+      </c>
+      <c r="F73">
+        <v>2.2310958805207027e-07</v>
+      </c>
+      <c r="G73">
+        <v>0.8899481401041871</v>
+      </c>
+      <c r="H73">
+        <v>0.031906009792617276</v>
+      </c>
+      <c r="I73">
+        <v>0.01481609515956279</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B74">
+        <v>0.02689026642195801</v>
+      </c>
+      <c r="C74">
+        <v>0.02011773117488878</v>
+      </c>
+      <c r="D74">
+        <v>0.04207627188225093</v>
+      </c>
+      <c r="E74">
+        <v>0.033504942292247979</v>
+      </c>
+      <c r="F74">
+        <v>1.9889462634860369e-07</v>
+      </c>
+      <c r="G74">
+        <v>0.85266964489096364</v>
+      </c>
+      <c r="H74">
+        <v>0.009787880564002642</v>
+      </c>
+      <c r="I74">
+        <v>0.014953063879061729</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75">
+        <v>0.011380002842296627</v>
+      </c>
+      <c r="C75">
+        <v>0.023147485685486659</v>
+      </c>
+      <c r="D75">
+        <v>0.023634415539912419</v>
+      </c>
+      <c r="E75">
+        <v>0.010676729114323486</v>
+      </c>
+      <c r="F75">
+        <v>1.3794584141097839e-06</v>
+      </c>
+      <c r="G75">
+        <v>0.89688394458292997</v>
+      </c>
+      <c r="H75">
+        <v>0.014021940341617179</v>
+      </c>
+      <c r="I75">
+        <v>0.02025410243501951</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B76">
+        <v>0.16945402575263641</v>
+      </c>
+      <c r="C76">
+        <v>0.058026408939365379</v>
+      </c>
+      <c r="D76">
+        <v>0.10212259006320833</v>
+      </c>
+      <c r="E76">
+        <v>0.1672534593036559</v>
+      </c>
+      <c r="F76">
+        <v>1.2539974062912079e-05</v>
+      </c>
+      <c r="G76">
+        <v>0.41413769549684692</v>
+      </c>
+      <c r="H76">
+        <v>0.0046418384511006617</v>
+      </c>
+      <c r="I76">
+        <v>0.084351442019123507</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B77">
+        <v>0.035595928385591009</v>
+      </c>
+      <c r="C77">
+        <v>0.0073551499539531396</v>
+      </c>
+      <c r="D77">
+        <v>0.038732425648726747</v>
+      </c>
+      <c r="E77">
+        <v>0.029373171552735042</v>
+      </c>
+      <c r="F77">
+        <v>6.6766677393145687e-07</v>
+      </c>
+      <c r="G77">
+        <v>0.80139442801719574</v>
+      </c>
+      <c r="H77">
+        <v>0.067332658147079977</v>
+      </c>
+      <c r="I77">
+        <v>0.020215570627944421</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78">
+        <v>0.013525926468313874</v>
+      </c>
+      <c r="C78">
+        <v>0.0047027680792731752</v>
+      </c>
+      <c r="D78">
+        <v>0.020786857201747048</v>
+      </c>
+      <c r="E78">
+        <v>0.032042053630705156</v>
+      </c>
+      <c r="F78">
+        <v>1.6947709569470032e-07</v>
+      </c>
+      <c r="G78">
+        <v>0.85390260380857141</v>
+      </c>
+      <c r="H78">
+        <v>0.054882647951988821</v>
+      </c>
+      <c r="I78">
+        <v>0.020156973382304728</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B79">
+        <v>0.0075257151847791075</v>
+      </c>
+      <c r="C79">
+        <v>0.12358594311194333</v>
+      </c>
+      <c r="D79">
+        <v>0.029836537551012694</v>
+      </c>
+      <c r="E79">
+        <v>0.046212976945138519</v>
+      </c>
+      <c r="F79">
+        <v>1.1548530332490079e-07</v>
+      </c>
+      <c r="G79">
+        <v>0.7267639246350388</v>
+      </c>
+      <c r="H79">
+        <v>0.038262579596639139</v>
+      </c>
+      <c r="I79">
+        <v>0.027812207490145058</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B80">
+        <v>0.02394627665277347</v>
+      </c>
+      <c r="C80">
+        <v>0.029503716230885147</v>
+      </c>
+      <c r="D80">
+        <v>0.022719812869642492</v>
+      </c>
+      <c r="E80">
+        <v>0.044850970579345097</v>
+      </c>
+      <c r="F80">
+        <v>9.7952481916104818e-08</v>
+      </c>
+      <c r="G80">
+        <v>0.84816361775847215</v>
+      </c>
+      <c r="H80">
+        <v>0.0196320118062819</v>
+      </c>
+      <c r="I80">
+        <v>0.011183496150117754</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B81">
+        <v>0.067193726021480868</v>
+      </c>
+      <c r="C81">
+        <v>0.0024558873504269213</v>
+      </c>
+      <c r="D81">
+        <v>0.11089662705905226</v>
+      </c>
+      <c r="E81">
+        <v>0.09150042515732662</v>
+      </c>
+      <c r="F81">
+        <v>4.4729798778536321e-05</v>
+      </c>
+      <c r="G81">
+        <v>0.0036862193446734934</v>
+      </c>
+      <c r="H81">
+        <v>0.54715985602761208</v>
+      </c>
+      <c r="I81">
+        <v>0.17706252924064936</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82">
+        <v>0.057665099045475003</v>
+      </c>
+      <c r="C82">
+        <v>0.0013644498114901084</v>
+      </c>
+      <c r="D82">
+        <v>0.11832699093177301</v>
+      </c>
+      <c r="E82">
+        <v>0.085059362165800068</v>
+      </c>
+      <c r="F82">
+        <v>5.7831155346217189e-05</v>
+      </c>
+      <c r="G82">
+        <v>0.0090787585225052588</v>
+      </c>
+      <c r="H82">
+        <v>0.51418108613409319</v>
+      </c>
+      <c r="I82">
+        <v>0.21426642223351722</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B83">
+        <v>0.10382057854608989</v>
+      </c>
+      <c r="C83">
+        <v>0.0031461109894021862</v>
+      </c>
+      <c r="D83">
+        <v>0.10181501183922176</v>
+      </c>
+      <c r="E83">
+        <v>0.075245681872772877</v>
+      </c>
+      <c r="F83">
+        <v>0.00014227767804795983</v>
+      </c>
+      <c r="G83">
+        <v>0.014679511680411666</v>
+      </c>
+      <c r="H83">
+        <v>0.52511899822441943</v>
+      </c>
+      <c r="I83">
+        <v>0.17603182916963417</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B84">
+        <v>0.092637873338255058</v>
+      </c>
+      <c r="C84">
+        <v>0.0016352675877124002</v>
+      </c>
+      <c r="D84">
+        <v>0.12749498857207667</v>
+      </c>
+      <c r="E84">
+        <v>0.08274307767691963</v>
+      </c>
+      <c r="F84">
+        <v>0.00010241108255058368</v>
+      </c>
+      <c r="G84">
+        <v>0.015448994310650735</v>
+      </c>
+      <c r="H84">
+        <v>0.46034154594167342</v>
+      </c>
+      <c r="I84">
+        <v>0.21959584149016151</v>
+      </c>
+      <c r="J84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B85">
+        <v>0.057938148976339393</v>
+      </c>
+      <c r="C85">
+        <v>0.0014813756096076689</v>
+      </c>
+      <c r="D85">
+        <v>0.066553381479896076</v>
+      </c>
+      <c r="E85">
+        <v>0.043266453062550371</v>
+      </c>
+      <c r="F85">
+        <v>2.4139312483649539e-05</v>
+      </c>
+      <c r="G85">
+        <v>0.0027263567445842364</v>
+      </c>
+      <c r="H85">
+        <v>0.72762092760097141</v>
+      </c>
+      <c r="I85">
+        <v>0.10038921721356714</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B86">
+        <v>0.080401840266752317</v>
+      </c>
+      <c r="C86">
+        <v>0.0058991323126711005</v>
+      </c>
+      <c r="D86">
+        <v>0.10836601317465858</v>
+      </c>
+      <c r="E86">
+        <v>0.085710039120918458</v>
+      </c>
+      <c r="F86">
+        <v>7.6739496776412455e-06</v>
+      </c>
+      <c r="G86">
+        <v>0.0057804548008646506</v>
+      </c>
+      <c r="H86">
+        <v>0.61060435074321684</v>
+      </c>
+      <c r="I86">
+        <v>0.10323049563124037</v>
+      </c>
+      <c r="J86">
+        <v>7</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B87">
+        <v>0.079283245594248153</v>
+      </c>
+      <c r="C87">
+        <v>0.003565866348673763</v>
+      </c>
+      <c r="D87">
+        <v>0.089123435395332948</v>
+      </c>
+      <c r="E87">
+        <v>0.072844087365737553</v>
+      </c>
+      <c r="F87">
+        <v>4.0919625677307889e-06</v>
+      </c>
+      <c r="G87">
+        <v>0.015274794064054216</v>
+      </c>
+      <c r="H87">
+        <v>0.67341588740205316</v>
+      </c>
+      <c r="I87">
+        <v>0.066488591867332497</v>
+      </c>
+      <c r="J87">
+        <v>7</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88">
+        <v>0.10589169326149876</v>
+      </c>
+      <c r="C88">
+        <v>0.0091697784379077812</v>
+      </c>
+      <c r="D88">
+        <v>0.10624320068025579</v>
+      </c>
+      <c r="E88">
+        <v>0.090222778719552268</v>
+      </c>
+      <c r="F88">
+        <v>4.7807862672235442e-06</v>
+      </c>
+      <c r="G88">
+        <v>0.03571157432964344</v>
+      </c>
+      <c r="H88">
+        <v>0.562325931585276</v>
+      </c>
+      <c r="I88">
+        <v>0.090430262199598849</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B89">
+        <v>0.094817480350634933</v>
+      </c>
+      <c r="C89">
+        <v>0.0070474754678622386</v>
+      </c>
+      <c r="D89">
+        <v>0.086590942282985348</v>
+      </c>
+      <c r="E89">
+        <v>0.062661241993830982</v>
+      </c>
+      <c r="F89">
+        <v>1.3783923018081854e-06</v>
+      </c>
+      <c r="G89">
+        <v>0.12148829446902824</v>
+      </c>
+      <c r="H89">
+        <v>0.59274891680856701</v>
+      </c>
+      <c r="I89">
+        <v>0.034644270234789387</v>
+      </c>
+      <c r="J89">
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B90">
+        <v>0.29369343351495886</v>
+      </c>
+      <c r="C90">
+        <v>0.018235998606462359</v>
+      </c>
+      <c r="D90">
+        <v>0.18295968957999104</v>
+      </c>
+      <c r="E90">
+        <v>0.15500698195198964</v>
+      </c>
+      <c r="F90">
+        <v>7.6590154916404961e-06</v>
+      </c>
+      <c r="G90">
+        <v>0.0019366102120696744</v>
+      </c>
+      <c r="H90">
+        <v>0.13040179260617396</v>
+      </c>
+      <c r="I90">
+        <v>0.21775783451286293</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B91">
+        <v>0.079323855102712768</v>
+      </c>
+      <c r="C91">
+        <v>0.010214464253006626</v>
+      </c>
+      <c r="D91">
+        <v>0.039714887274896846</v>
+      </c>
+      <c r="E91">
+        <v>0.060245398210336712</v>
+      </c>
+      <c r="F91">
+        <v>4.3124792753379366e-06</v>
+      </c>
+      <c r="G91">
+        <v>0.030955505267518564</v>
+      </c>
+      <c r="H91">
+        <v>0.720090371832112</v>
+      </c>
+      <c r="I91">
+        <v>0.059451205580141157</v>
+      </c>
+      <c r="J91">
+        <v>7</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B92">
+        <v>0.024136914326441956</v>
+      </c>
+      <c r="C92">
+        <v>0.0028032603463132937</v>
+      </c>
+      <c r="D92">
+        <v>0.051556066049006748</v>
+      </c>
+      <c r="E92">
+        <v>0.097170454640384804</v>
+      </c>
+      <c r="F92">
+        <v>2.2792159071084638e-05</v>
+      </c>
+      <c r="G92">
+        <v>0.40884945799360328</v>
+      </c>
+      <c r="H92">
+        <v>0.30206611538533867</v>
+      </c>
+      <c r="I92">
+        <v>0.11339493909984003</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93">
+        <v>0.17317136598967281</v>
+      </c>
+      <c r="C93">
+        <v>0.011005807096205588</v>
+      </c>
+      <c r="D93">
+        <v>0.096158650643523691</v>
+      </c>
+      <c r="E93">
+        <v>0.080002512030599673</v>
+      </c>
+      <c r="F93">
+        <v>1.3855123853044751e-06</v>
+      </c>
+      <c r="G93">
+        <v>0.18902691662099638</v>
+      </c>
+      <c r="H93">
+        <v>0.33381182802050813</v>
+      </c>
+      <c r="I93">
+        <v>0.11682153408610847</v>
+      </c>
+      <c r="J93">
+        <v>7</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B94">
+        <v>0.063000058936476991</v>
+      </c>
+      <c r="C94">
+        <v>0.084881160543052489</v>
+      </c>
+      <c r="D94">
+        <v>0.070674974754177763</v>
+      </c>
+      <c r="E94">
+        <v>0.15692332263415204</v>
+      </c>
+      <c r="F94">
+        <v>7.915961846846839e-06</v>
+      </c>
+      <c r="G94">
+        <v>0.1324297742400049</v>
+      </c>
+      <c r="H94">
+        <v>0.27534942851522443</v>
+      </c>
+      <c r="I94">
+        <v>0.21673336441506458</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B95">
+        <v>0.04647252035382847</v>
+      </c>
+      <c r="C95">
+        <v>0.0037651396357116854</v>
+      </c>
+      <c r="D95">
+        <v>0.14077751924779527</v>
+      </c>
+      <c r="E95">
+        <v>0.13526425102725131</v>
+      </c>
+      <c r="F95">
+        <v>0.00014974851803214312</v>
+      </c>
+      <c r="G95">
+        <v>0.0046595409177191049</v>
+      </c>
+      <c r="H95">
+        <v>0.29776344036186536</v>
+      </c>
+      <c r="I95">
+        <v>0.3711478399377966</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B96">
+        <v>0.049223798900955962</v>
+      </c>
+      <c r="C96">
+        <v>0.0024344177260442038</v>
+      </c>
+      <c r="D96">
+        <v>0.13607422489715518</v>
+      </c>
+      <c r="E96">
+        <v>0.11061578012603172</v>
+      </c>
+      <c r="F96">
+        <v>0.00040011708680428107</v>
+      </c>
+      <c r="G96">
+        <v>0.0023570764544443446</v>
+      </c>
+      <c r="H96">
+        <v>0.32698730946593013</v>
+      </c>
+      <c r="I96">
+        <v>0.37190727534263407</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B97">
+        <v>0.088832229098409099</v>
+      </c>
+      <c r="C97">
+        <v>0.0031559751829599416</v>
+      </c>
+      <c r="D97">
+        <v>0.17178681421015471</v>
+      </c>
+      <c r="E97">
+        <v>0.13800115775054497</v>
+      </c>
+      <c r="F97">
+        <v>0.0014227254403627577</v>
+      </c>
+      <c r="G97">
+        <v>0.0069414425986067882</v>
+      </c>
+      <c r="H97">
+        <v>0.34709977296627387</v>
+      </c>
+      <c r="I97">
+        <v>0.24275988275268781</v>
+      </c>
+      <c r="J97">
+        <v>7</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B98">
+        <v>0.052616863502178465</v>
+      </c>
+      <c r="C98">
+        <v>0.00094644365747803788</v>
+      </c>
+      <c r="D98">
+        <v>0.16459102905060574</v>
+      </c>
+      <c r="E98">
+        <v>0.085512560980075356</v>
+      </c>
+      <c r="F98">
+        <v>7.1320053728919332e-05</v>
+      </c>
+      <c r="G98">
+        <v>0.0086641277362032657</v>
+      </c>
+      <c r="H98">
+        <v>0.41945361366150768</v>
+      </c>
+      <c r="I98">
+        <v>0.26814404135822245</v>
+      </c>
+      <c r="J98">
+        <v>7</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B99">
+        <v>0.078034097166626973</v>
+      </c>
+      <c r="C99">
+        <v>0.0035554537053750735</v>
+      </c>
+      <c r="D99">
+        <v>0.15695260584272824</v>
+      </c>
+      <c r="E99">
+        <v>0.10138509469235783</v>
+      </c>
+      <c r="F99">
+        <v>0.00013770711597249318</v>
+      </c>
+      <c r="G99">
+        <v>0.0094854919610680849</v>
+      </c>
+      <c r="H99">
+        <v>0.36685118907563224</v>
+      </c>
+      <c r="I99">
+        <v>0.28359836044023917</v>
+      </c>
+      <c r="J99">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B100">
+        <v>0.039688232096367654</v>
+      </c>
+      <c r="C100">
+        <v>0.0018017480111294914</v>
+      </c>
+      <c r="D100">
+        <v>0.15335660225512762</v>
+      </c>
+      <c r="E100">
+        <v>0.12800424171750255</v>
+      </c>
+      <c r="F100">
+        <v>0.00048681503307085625</v>
+      </c>
+      <c r="G100">
+        <v>0.0031107283493616647</v>
+      </c>
+      <c r="H100">
+        <v>0.39031271343615476</v>
+      </c>
+      <c r="I100">
+        <v>0.28323891910128546</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101">
+        <v>0.068750803373841901</v>
+      </c>
+      <c r="C101">
+        <v>0.0028006481383660467</v>
+      </c>
+      <c r="D101">
+        <v>0.053802462508630376</v>
+      </c>
+      <c r="E101">
+        <v>0.038015623240966523</v>
+      </c>
+      <c r="F101">
+        <v>7.7012799953231763e-05</v>
+      </c>
+      <c r="G101">
+        <v>0.0057174329232016468</v>
+      </c>
+      <c r="H101">
+        <v>0.77020355498651805</v>
+      </c>
+      <c r="I101">
+        <v>0.060632462028522308</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B102">
+        <v>0.048220208572535894</v>
+      </c>
+      <c r="C102">
+        <v>0.0022386604393234296</v>
+      </c>
+      <c r="D102">
+        <v>0.14345377161851269</v>
+      </c>
+      <c r="E102">
+        <v>0.10844168877364546</v>
+      </c>
+      <c r="F102">
+        <v>0.00010413582802684806</v>
+      </c>
+      <c r="G102">
+        <v>0.0039950931671607912</v>
+      </c>
+      <c r="H102">
+        <v>0.38242307616670174</v>
+      </c>
+      <c r="I102">
+        <v>0.31112336543409314</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B103">
+        <v>0.051293979864063879</v>
+      </c>
+      <c r="C103">
+        <v>0.015834409573773287</v>
+      </c>
+      <c r="D103">
+        <v>0.10354950457922285</v>
+      </c>
+      <c r="E103">
+        <v>0.15430021334030489</v>
+      </c>
+      <c r="F103">
+        <v>2.1658913643065387e-05</v>
+      </c>
+      <c r="G103">
+        <v>0.0013719027700136285</v>
+      </c>
+      <c r="H103">
+        <v>0.48648429426143996</v>
+      </c>
+      <c r="I103">
+        <v>0.18714403669753837</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>